--- a/fragamedfit.xlsx
+++ b/fragamedfit.xlsx
@@ -57,19 +57,19 @@
     <t xml:space="preserve">=~</t>
   </si>
   <si>
-    <t xml:space="preserve">security_freedom_4</t>
+    <t xml:space="preserve">security_freedom_5</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">security_freedom_5</t>
+    <t xml:space="preserve">security_freedom_6</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">security_freedom_6</t>
+    <t xml:space="preserve">security_freedom_7</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
@@ -324,15 +324,15 @@
     <t xml:space="preserve">est.std</t>
   </si>
   <si>
-    <t xml:space="preserve">cov.security_freedom_4</t>
-  </si>
-  <si>
     <t xml:space="preserve">cov.security_freedom_5</t>
   </si>
   <si>
     <t xml:space="preserve">cov.security_freedom_6</t>
   </si>
   <si>
+    <t xml:space="preserve">cov.security_freedom_7</t>
+  </si>
+  <si>
     <t xml:space="preserve">cov.nar5_end</t>
   </si>
   <si>
@@ -399,13 +399,13 @@
     <t xml:space="preserve">fmin</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370304335330172</t>
+    <t xml:space="preserve">0.364634232624827</t>
   </si>
   <si>
     <t xml:space="preserve">chisq</t>
   </si>
   <si>
-    <t xml:space="preserve">250.325730683196</t>
+    <t xml:space="preserve">246.492741254383</t>
   </si>
   <si>
     <t xml:space="preserve">df</t>
@@ -414,13 +414,13 @@
     <t xml:space="preserve">152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.000000878811653337586</t>
+    <t xml:space="preserve">0.00000191848812791662</t>
   </si>
   <si>
     <t xml:space="preserve">chisq.scaled</t>
   </si>
   <si>
-    <t xml:space="preserve">185.775682524534</t>
+    <t xml:space="preserve">182.298805124629</t>
   </si>
   <si>
     <t xml:space="preserve">df.scaled</t>
@@ -429,19 +429,19 @@
     <t xml:space="preserve">pvalue.scaled</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0323441512411029</t>
+    <t xml:space="preserve">0.0472868888596243</t>
   </si>
   <si>
     <t xml:space="preserve">chisq.scaling.factor</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34746231197475</t>
+    <t xml:space="preserve">1.35213580300687</t>
   </si>
   <si>
     <t xml:space="preserve">baseline.chisq</t>
   </si>
   <si>
-    <t xml:space="preserve">3168.94218557637</t>
+    <t xml:space="preserve">3321.61187035253</t>
   </si>
   <si>
     <t xml:space="preserve">baseline.df</t>
@@ -459,7 +459,7 @@
     <t xml:space="preserve">baseline.chisq.scaled</t>
   </si>
   <si>
-    <t xml:space="preserve">2381.17039216904</t>
+    <t xml:space="preserve">2515.5735056145</t>
   </si>
   <si>
     <t xml:space="preserve">baseline.df.scaled</t>
@@ -471,43 +471,43 @@
     <t xml:space="preserve">baseline.chisq.scaling.factor</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33083386052425</t>
+    <t xml:space="preserve">1.32041932503226</t>
   </si>
   <si>
     <t xml:space="preserve">cfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966993071849707</t>
+    <t xml:space="preserve">0.969826164554758</t>
   </si>
   <si>
     <t xml:space="preserve">tli</t>
   </si>
   <si>
-    <t xml:space="preserve">0.958741339812134</t>
+    <t xml:space="preserve">0.962282705693448</t>
   </si>
   <si>
     <t xml:space="preserve">cfi.scaled</t>
   </si>
   <si>
-    <t xml:space="preserve">0.98458555179221</t>
+    <t xml:space="preserve">0.986971469596003</t>
   </si>
   <si>
     <t xml:space="preserve">tli.scaled</t>
   </si>
   <si>
-    <t xml:space="preserve">0.980731939740262</t>
+    <t xml:space="preserve">0.983714336995004</t>
   </si>
   <si>
     <t xml:space="preserve">cfi.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.984392951940896</t>
+    <t xml:space="preserve">0.986658524238595</t>
   </si>
   <si>
     <t xml:space="preserve">tli.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.98049118992612</t>
+    <t xml:space="preserve">0.983323155298244</t>
   </si>
   <si>
     <t xml:space="preserve">nnfi</t>
@@ -516,25 +516,25 @@
     <t xml:space="preserve">rfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90125816596522</t>
+    <t xml:space="preserve">0.907239033760053</t>
   </si>
   <si>
     <t xml:space="preserve">nfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921006532772176</t>
+    <t xml:space="preserve">0.925791227008042</t>
   </si>
   <si>
     <t xml:space="preserve">pnfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.736805226217741</t>
+    <t xml:space="preserve">0.740632981606434</t>
   </si>
   <si>
     <t xml:space="preserve">ifi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967408811758714</t>
+    <t xml:space="preserve">0.970187914129728</t>
   </si>
   <si>
     <t xml:space="preserve">rni</t>
@@ -546,25 +546,25 @@
     <t xml:space="preserve">rfi.scaled</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902476696367733</t>
+    <t xml:space="preserve">0.909414888534485</t>
   </si>
   <si>
     <t xml:space="preserve">nfi.scaled</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921981357094186</t>
+    <t xml:space="preserve">0.927531910827588</t>
   </si>
   <si>
     <t xml:space="preserve">pnfi.scaled</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737585085675349</t>
+    <t xml:space="preserve">0.74202552866207</t>
   </si>
   <si>
     <t xml:space="preserve">ifi.scaled</t>
   </si>
   <si>
-    <t xml:space="preserve">0.984848317273912</t>
+    <t xml:space="preserve">0.987180933847559</t>
   </si>
   <si>
     <t xml:space="preserve">rni.scaled</t>
@@ -579,25 +579,25 @@
     <t xml:space="preserve">logl</t>
   </si>
   <si>
-    <t xml:space="preserve">-11480.9483798969</t>
+    <t xml:space="preserve">-11399.9005148198</t>
   </si>
   <si>
     <t xml:space="preserve">unrestricted.logl</t>
   </si>
   <si>
-    <t xml:space="preserve">-11355.7855145553</t>
+    <t xml:space="preserve">-11276.6541441926</t>
   </si>
   <si>
     <t xml:space="preserve">aic</t>
   </si>
   <si>
-    <t xml:space="preserve">23075.8967597938</t>
+    <t xml:space="preserve">22913.8010296396</t>
   </si>
   <si>
     <t xml:space="preserve">bic</t>
   </si>
   <si>
-    <t xml:space="preserve">23293.8103758364</t>
+    <t xml:space="preserve">23131.7146456821</t>
   </si>
   <si>
     <t xml:space="preserve">ntotal</t>
@@ -609,25 +609,25 @@
     <t xml:space="preserve">bic2</t>
   </si>
   <si>
-    <t xml:space="preserve">23112.9975916678</t>
+    <t xml:space="preserve">22950.9018615135</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0437475208807753</t>
+    <t xml:space="preserve">0.0428863494444312</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.lower</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0338293077359993</t>
+    <t xml:space="preserve">0.032852178661645</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.upper</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0532643983207613</t>
+    <t xml:space="preserve">0.052471455021667</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.level</t>
@@ -639,7 +639,7 @@
     <t xml:space="preserve">rmsea.pvalue</t>
   </si>
   <si>
-    <t xml:space="preserve">0.854962697251339</t>
+    <t xml:space="preserve">0.885337565938697</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.close.h0</t>
@@ -651,7 +651,7 @@
     <t xml:space="preserve">rmsea.notclose.pvalue</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00000000000681380328800077</t>
+    <t xml:space="preserve">0.00000000000259167038694211</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.notclose.h0</t>
@@ -663,67 +663,67 @@
     <t xml:space="preserve">rmsea.scaled</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0256402303655685</t>
+    <t xml:space="preserve">0.0242846923953469</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.lower.scaled</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0117497502429811</t>
+    <t xml:space="preserve">0.00897641518820096</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.upper.scaled</t>
   </si>
   <si>
-    <t xml:space="preserve">0.035987875816496</t>
+    <t xml:space="preserve">0.0348885929627771</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.pvalue.scaled</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999991513131687</t>
+    <t xml:space="preserve">0.999996470313371</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.notclose.pvalue.scaled</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00000000000000000000000000183726975377528</t>
+    <t xml:space="preserve">0.000000000000000000000000000219684770922846</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0297632420507478</t>
+    <t xml:space="preserve">0.0282385740837364</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.lower.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00938178309750817</t>
+    <t xml:space="preserve">0.00341107642045204</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.upper.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0435716615044316</t>
+    <t xml:space="preserve">0.042419485723472</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.pvalue.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.994260233926534</t>
+    <t xml:space="preserve">0.996265715611844</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.notclose.pvalue.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.000000000000436430126472906</t>
+    <t xml:space="preserve">0.000000000000168239421344183</t>
   </si>
   <si>
     <t xml:space="preserve">rmr</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173573050565503</t>
+    <t xml:space="preserve">0.170083775121833</t>
   </si>
   <si>
     <t xml:space="preserve">rmr_nomean</t>
@@ -732,7 +732,7 @@
     <t xml:space="preserve">srmr</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0527185712790212</t>
+    <t xml:space="preserve">0.0518983684596487</t>
   </si>
   <si>
     <t xml:space="preserve">srmr_bentler</t>
@@ -744,7 +744,7 @@
     <t xml:space="preserve">crmr</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0554224001763989</t>
+    <t xml:space="preserve">0.0545603273522667</t>
   </si>
   <si>
     <t xml:space="preserve">crmr_nomean</t>
@@ -753,7 +753,7 @@
     <t xml:space="preserve">srmr_mplus</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0527172586247217</t>
+    <t xml:space="preserve">0.0518972810068131</t>
   </si>
   <si>
     <t xml:space="preserve">srmr_mplus_nomean</t>
@@ -762,43 +762,43 @@
     <t xml:space="preserve">cn_05</t>
   </si>
   <si>
-    <t xml:space="preserve">246.433591225019</t>
+    <t xml:space="preserve">250.250110753561</t>
   </si>
   <si>
     <t xml:space="preserve">cn_01</t>
   </si>
   <si>
-    <t xml:space="preserve">264.939146404692</t>
+    <t xml:space="preserve">269.04342936601</t>
   </si>
   <si>
     <t xml:space="preserve">gfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93042812961105</t>
+    <t xml:space="preserve">0.930168663673864</t>
   </si>
   <si>
     <t xml:space="preserve">agfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903880968541582</t>
+    <t xml:space="preserve">0.903522495865206</t>
   </si>
   <si>
     <t xml:space="preserve">pgfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.67345274143276</t>
+    <t xml:space="preserve">0.67326493751632</t>
   </si>
   <si>
     <t xml:space="preserve">mfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864631162841683</t>
+    <t xml:space="preserve">0.869547635617962</t>
   </si>
   <si>
     <t xml:space="preserve">ecvi</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07788677716922</t>
+    <t xml:space="preserve">1.06654657175853</t>
   </si>
 </sst>
 </file>
@@ -1204,22 +1204,22 @@
         <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>1.17718492073926</v>
+        <v>1.11325615169647</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0711766005369505</v>
+        <v>0.0453643359092476</v>
       </c>
       <c r="G3" t="n">
-        <v>16.5389315007836</v>
+        <v>24.540338338107</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.03768134714484</v>
+        <v>1.02434368713177</v>
       </c>
       <c r="J3" t="n">
-        <v>1.31668849433368</v>
+        <v>1.20216861626117</v>
       </c>
     </row>
     <row r="4">
@@ -1236,22 +1236,22 @@
         <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>1.15107372090839</v>
+        <v>0.994458404286988</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0747683513679755</v>
+        <v>0.0534423447805144</v>
       </c>
       <c r="G4" t="n">
-        <v>15.3951999722896</v>
+        <v>18.6080608620597</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.00453044504372</v>
+        <v>0.889713333267807</v>
       </c>
       <c r="J4" t="n">
-        <v>1.29761699677306</v>
+        <v>1.09920347530617</v>
       </c>
     </row>
     <row r="5">
@@ -1296,22 +1296,22 @@
         <v>22</v>
       </c>
       <c r="E6" t="n">
-        <v>0.775695418050239</v>
+        <v>0.77273540367616</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0806737966945706</v>
+        <v>0.080328931710384</v>
       </c>
       <c r="G6" t="n">
-        <v>9.61520902489573</v>
+        <v>9.61963998802028</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.617577682032774</v>
+        <v>0.61529359060723</v>
       </c>
       <c r="J6" t="n">
-        <v>0.933813154067704</v>
+        <v>0.930177216745091</v>
       </c>
     </row>
     <row r="7">
@@ -1328,22 +1328,22 @@
         <v>24</v>
       </c>
       <c r="E7" t="n">
-        <v>0.714663927627313</v>
+        <v>0.715173410840837</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0887987526020189</v>
+        <v>0.0894437756312553</v>
       </c>
       <c r="G7" t="n">
-        <v>8.04813025730572</v>
+        <v>7.99578736243472</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000000000000000888178419700125</v>
+        <v>0.00000000000000133226762955019</v>
       </c>
       <c r="I7" t="n">
-        <v>0.540621570655274</v>
+        <v>0.539866831962296</v>
       </c>
       <c r="J7" t="n">
-        <v>0.888706284599353</v>
+        <v>0.890479989719379</v>
       </c>
     </row>
     <row r="8">
@@ -1360,22 +1360,22 @@
         <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>0.546018290093896</v>
+        <v>0.544271132697369</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0765828655337462</v>
+        <v>0.0766463069311103</v>
       </c>
       <c r="G8" t="n">
-        <v>7.12977095187557</v>
+        <v>7.10107446124651</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00000000000100541797110054</v>
+        <v>0.00000000000123789867245705</v>
       </c>
       <c r="I8" t="n">
-        <v>0.39591863181488</v>
+        <v>0.39404713156439</v>
       </c>
       <c r="J8" t="n">
-        <v>0.696117948372912</v>
+        <v>0.694495133830347</v>
       </c>
     </row>
     <row r="9">
@@ -1420,22 +1420,22 @@
         <v>31</v>
       </c>
       <c r="E10" t="n">
-        <v>1.90874250019255</v>
+        <v>1.91397020648894</v>
       </c>
       <c r="F10" t="n">
-        <v>0.310365953899579</v>
+        <v>0.307226622913954</v>
       </c>
       <c r="G10" t="n">
-        <v>6.14997384929063</v>
+        <v>6.2298318691769</v>
       </c>
       <c r="H10" t="n">
-        <v>0.000000000774957209515037</v>
+        <v>0.000000000466936045384614</v>
       </c>
       <c r="I10" t="n">
-        <v>1.30043640852196</v>
+        <v>1.31181709048573</v>
       </c>
       <c r="J10" t="n">
-        <v>2.51704859186315</v>
+        <v>2.51612332249216</v>
       </c>
     </row>
     <row r="11">
@@ -1452,22 +1452,22 @@
         <v>33</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5366501943715</v>
+        <v>1.53812219323131</v>
       </c>
       <c r="F11" t="n">
-        <v>0.236517988041704</v>
+        <v>0.23431151334274</v>
       </c>
       <c r="G11" t="n">
-        <v>6.49696966854186</v>
+        <v>6.56443284108459</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00000000008195399914257</v>
+        <v>0.0000000000522313303719102</v>
       </c>
       <c r="I11" t="n">
-        <v>1.07308345611388</v>
+        <v>1.07888006591646</v>
       </c>
       <c r="J11" t="n">
-        <v>2.00021693262912</v>
+        <v>1.99736432054616</v>
       </c>
     </row>
     <row r="12">
@@ -1484,22 +1484,22 @@
         <v>35</v>
       </c>
       <c r="E12" t="n">
-        <v>1.08133438825557</v>
+        <v>1.08675120028405</v>
       </c>
       <c r="F12" t="n">
-        <v>0.187661291692336</v>
+        <v>0.18744806537017</v>
       </c>
       <c r="G12" t="n">
-        <v>5.76215999849546</v>
+        <v>5.79761225136118</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00000000830442159482914</v>
+        <v>0.00000000672657551881173</v>
       </c>
       <c r="I12" t="n">
-        <v>0.713525015246322</v>
+        <v>0.719359743186806</v>
       </c>
       <c r="J12" t="n">
-        <v>1.44914376126481</v>
+        <v>1.45414265738129</v>
       </c>
     </row>
     <row r="13">
@@ -1544,22 +1544,22 @@
         <v>40</v>
       </c>
       <c r="E14" t="n">
-        <v>1.1200894961199</v>
+        <v>1.12005213041334</v>
       </c>
       <c r="F14" t="n">
-        <v>0.045872454937763</v>
+        <v>0.045862549165478</v>
       </c>
       <c r="G14" t="n">
-        <v>24.4174744438589</v>
+        <v>24.4219335992871</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.03018113655944</v>
+        <v>1.03016318580981</v>
       </c>
       <c r="J14" t="n">
-        <v>1.20999785568035</v>
+        <v>1.20994107501688</v>
       </c>
     </row>
     <row r="15">
@@ -1576,22 +1576,22 @@
         <v>42</v>
       </c>
       <c r="E15" t="n">
-        <v>1.11560595105603</v>
+        <v>1.11557424011063</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0449460247038199</v>
+        <v>0.044953812241425</v>
       </c>
       <c r="G15" t="n">
-        <v>24.8210149486527</v>
+        <v>24.8160096883313</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.02751336138829</v>
+        <v>1.02746638714966</v>
       </c>
       <c r="J15" t="n">
-        <v>1.20369854072376</v>
+        <v>1.2036820930716</v>
       </c>
     </row>
     <row r="16">
@@ -1636,22 +1636,22 @@
         <v>47</v>
       </c>
       <c r="E17" t="n">
-        <v>1.09922346571264</v>
+        <v>1.09932068453657</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0936706133949274</v>
+        <v>0.0937102223073108</v>
       </c>
       <c r="G17" t="n">
-        <v>11.7349873762241</v>
+        <v>11.7310647383963</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.915632437048807</v>
+        <v>0.915652023831002</v>
       </c>
       <c r="J17" t="n">
-        <v>1.28281449437647</v>
+        <v>1.28298934524214</v>
       </c>
     </row>
     <row r="18">
@@ -1668,22 +1668,22 @@
         <v>49</v>
       </c>
       <c r="E18" t="n">
-        <v>1.00693996004532</v>
+        <v>1.00696133442305</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0859393490525696</v>
+        <v>0.0859506473011952</v>
       </c>
       <c r="G18" t="n">
-        <v>11.7168674320464</v>
+        <v>11.7155759268965</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.838501931047464</v>
+        <v>0.838501161264806</v>
       </c>
       <c r="J18" t="n">
-        <v>1.17537798904317</v>
+        <v>1.1754215075813</v>
       </c>
     </row>
     <row r="19">
@@ -1700,22 +1700,22 @@
         <v>11</v>
       </c>
       <c r="E19" t="n">
-        <v>0.211117868833264</v>
+        <v>0.203664567550571</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0521682703233861</v>
+        <v>0.0466823696356804</v>
       </c>
       <c r="G19" t="n">
-        <v>4.04686349623181</v>
+        <v>4.36277269427439</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0000519084910384215</v>
+        <v>0.000012842435739735</v>
       </c>
       <c r="I19" t="n">
-        <v>0.108869937863678</v>
+        <v>0.112168804351651</v>
       </c>
       <c r="J19" t="n">
-        <v>0.313365799802851</v>
+        <v>0.29516033074949</v>
       </c>
     </row>
     <row r="20">
@@ -1732,22 +1732,22 @@
         <v>53</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00292322002421187</v>
+        <v>0.00557056713331851</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0360371644665264</v>
+        <v>0.0359341162136985</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0811168155842878</v>
+        <v>0.155021681907817</v>
       </c>
       <c r="H20" t="n">
-        <v>0.935349052853856</v>
+        <v>0.876804224243705</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.0677083244351265</v>
+        <v>-0.0648590064618073</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0735547644835502</v>
+        <v>0.0760001407284443</v>
       </c>
     </row>
     <row r="21">
@@ -1764,22 +1764,22 @@
         <v>44</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00703503799339476</v>
+        <v>0.00811017586542524</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0280167305337603</v>
+        <v>0.028125087921167</v>
       </c>
       <c r="G21" t="n">
-        <v>0.251101319082093</v>
+        <v>0.288360907107477</v>
       </c>
       <c r="H21" t="n">
-        <v>0.801735776092382</v>
+        <v>0.773070488941195</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.047876744817339</v>
+        <v>-0.0470139835220845</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0619468208041285</v>
+        <v>0.063234335252935</v>
       </c>
     </row>
     <row r="22">
@@ -1796,22 +1796,22 @@
         <v>56</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.066079670728134</v>
+        <v>-0.0703287011669219</v>
       </c>
       <c r="F22" t="n">
-        <v>0.100671057513765</v>
+        <v>0.0987350188079972</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.656391939849234</v>
+        <v>-0.71229744032039</v>
       </c>
       <c r="H22" t="n">
-        <v>0.51157197515213</v>
+        <v>0.476280608764746</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.263391317740674</v>
+        <v>-0.263845782043481</v>
       </c>
       <c r="J22" t="n">
-        <v>0.131231976284406</v>
+        <v>0.123188379709637</v>
       </c>
     </row>
     <row r="23">
@@ -1828,22 +1828,22 @@
         <v>37</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0761426497978775</v>
+        <v>0.0783597262821909</v>
       </c>
       <c r="F23" t="n">
-        <v>0.046873162799486</v>
+        <v>0.0466289124398174</v>
       </c>
       <c r="G23" t="n">
-        <v>1.62444019669849</v>
+        <v>1.68049654564274</v>
       </c>
       <c r="H23" t="n">
-        <v>0.104281894042901</v>
+        <v>0.0928607458422432</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.0157270611305977</v>
+        <v>-0.0130312627381228</v>
       </c>
       <c r="J23" t="n">
-        <v>0.168012360726353</v>
+        <v>0.169750715302505</v>
       </c>
     </row>
     <row r="24">
@@ -1860,22 +1860,22 @@
         <v>11</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.344110916051226</v>
+        <v>-0.312858376568739</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0690721296837696</v>
+        <v>0.0598398718817122</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.98190685051491</v>
+        <v>-5.228259465314</v>
       </c>
       <c r="H24" t="n">
-        <v>0.000000629607429081247</v>
+        <v>0.000000171113262670275</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.479489802566894</v>
+        <v>-0.430142370296386</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.208732029535557</v>
+        <v>-0.195574382841092</v>
       </c>
     </row>
     <row r="25">
@@ -1892,22 +1892,22 @@
         <v>53</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0404392548482818</v>
+        <v>0.0365367585636685</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0618250204253001</v>
+        <v>0.062098362327116</v>
       </c>
       <c r="G25" t="n">
-        <v>0.654092058038903</v>
+        <v>0.588369116261127</v>
       </c>
       <c r="H25" t="n">
-        <v>0.513052497876852</v>
+        <v>0.556284562743281</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.0807355585287597</v>
+        <v>-0.0851737950963978</v>
       </c>
       <c r="J25" t="n">
-        <v>0.161614068225323</v>
+        <v>0.158247312223735</v>
       </c>
     </row>
     <row r="26">
@@ -1924,22 +1924,22 @@
         <v>44</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.00944252343633573</v>
+        <v>-0.01037211318432</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0379455786470039</v>
+        <v>0.0384400067953453</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.248843838281572</v>
+        <v>-0.26982599767844</v>
       </c>
       <c r="H26" t="n">
-        <v>0.803481579411912</v>
+        <v>0.787294121139978</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.0838144909569955</v>
+        <v>-0.0857131420686717</v>
       </c>
       <c r="J26" t="n">
-        <v>0.064929444084324</v>
+        <v>0.0649689157000316</v>
       </c>
     </row>
     <row r="27">
@@ -1956,22 +1956,22 @@
         <v>56</v>
       </c>
       <c r="E27" t="n">
-        <v>0.185031743247639</v>
+        <v>0.179185497869001</v>
       </c>
       <c r="F27" t="n">
-        <v>0.167440668139504</v>
+        <v>0.167456613465264</v>
       </c>
       <c r="G27" t="n">
-        <v>1.10505855777808</v>
+        <v>1.07004133286244</v>
       </c>
       <c r="H27" t="n">
-        <v>0.269134216329147</v>
+        <v>0.284600704380596</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.143145935853113</v>
+        <v>-0.149023433495961</v>
       </c>
       <c r="J27" t="n">
-        <v>0.513209422348391</v>
+        <v>0.507394429233963</v>
       </c>
     </row>
     <row r="28">
@@ -1988,22 +1988,22 @@
         <v>37</v>
       </c>
       <c r="E28" t="n">
-        <v>0.260976246352425</v>
+        <v>0.256464567533325</v>
       </c>
       <c r="F28" t="n">
-        <v>0.077861542223433</v>
+        <v>0.0773967694275264</v>
       </c>
       <c r="G28" t="n">
-        <v>3.35179908976787</v>
+        <v>3.3136340112164</v>
       </c>
       <c r="H28" t="n">
-        <v>0.000802882616544043</v>
+        <v>0.000920919638908169</v>
       </c>
       <c r="I28" t="n">
-        <v>0.108370427813752</v>
+        <v>0.104769686935623</v>
       </c>
       <c r="J28" t="n">
-        <v>0.413582064891099</v>
+        <v>0.408159448131028</v>
       </c>
     </row>
     <row r="29">
@@ -2020,22 +2020,22 @@
         <v>37</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0970709527949241</v>
+        <v>0.097068187939276</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0691372320480456</v>
+        <v>0.0691346848143094</v>
       </c>
       <c r="G29" t="n">
-        <v>1.40403296341784</v>
+        <v>1.40404470201888</v>
       </c>
       <c r="H29" t="n">
-        <v>0.160309033937709</v>
+        <v>0.160305538604288</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.0384355320100336</v>
+        <v>-0.0384333043792986</v>
       </c>
       <c r="J29" t="n">
-        <v>0.232577437599882</v>
+        <v>0.232569680257851</v>
       </c>
     </row>
     <row r="30">
@@ -2052,22 +2052,22 @@
         <v>28</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.486300047737251</v>
+        <v>-0.495759783185288</v>
       </c>
       <c r="F30" t="n">
-        <v>0.155168644661429</v>
+        <v>0.155951792716177</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.13400976594424</v>
+        <v>-3.17892968430021</v>
       </c>
       <c r="H30" t="n">
-        <v>0.00172435116981173</v>
+        <v>0.00147819945535432</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.790425002803546</v>
+        <v>-0.801419680233451</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.182175092670956</v>
+        <v>-0.190099886137125</v>
       </c>
     </row>
     <row r="31">
@@ -2084,22 +2084,22 @@
         <v>19</v>
       </c>
       <c r="E31" t="n">
-        <v>0.585043998788158</v>
+        <v>0.588331455340109</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0946053596975062</v>
+        <v>0.0950992415548528</v>
       </c>
       <c r="G31" t="n">
-        <v>6.18404708421166</v>
+        <v>6.1864999733017</v>
       </c>
       <c r="H31" t="n">
-        <v>0.000000000624787110936609</v>
+        <v>0.000000000615147044413789</v>
       </c>
       <c r="I31" t="n">
-        <v>0.399620901036589</v>
+        <v>0.401940366935522</v>
       </c>
       <c r="J31" t="n">
-        <v>0.770467096539728</v>
+        <v>0.774722543744695</v>
       </c>
     </row>
     <row r="32">
@@ -2116,22 +2116,22 @@
         <v>11</v>
       </c>
       <c r="E32" t="n">
-        <v>0.020229757457469</v>
+        <v>0.0316643321943136</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0875582489066444</v>
+        <v>0.079118749883654</v>
       </c>
       <c r="G32" t="n">
-        <v>0.231043422065672</v>
+        <v>0.400212746547143</v>
       </c>
       <c r="H32" t="n">
-        <v>0.817281068547769</v>
+        <v>0.688999827046137</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.151381256948948</v>
+        <v>-0.123405568079481</v>
       </c>
       <c r="J32" t="n">
-        <v>0.191840771863886</v>
+        <v>0.186734232468108</v>
       </c>
     </row>
     <row r="33">
@@ -2148,22 +2148,22 @@
         <v>37</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.176874431900628</v>
+        <v>-0.177044937302803</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0774628726840091</v>
+        <v>0.0773377795447787</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.28334459815536</v>
+        <v>-2.28924257128812</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0224100779220815</v>
+        <v>0.0220652623741031</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.328698872500298</v>
+        <v>-0.328624199854868</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.025049991300959</v>
+        <v>-0.0254656747507381</v>
       </c>
     </row>
     <row r="34">
@@ -2180,22 +2180,22 @@
         <v>56</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.193544297570929</v>
+        <v>-0.201279678313326</v>
       </c>
       <c r="F34" t="n">
-        <v>0.176384429381413</v>
+        <v>0.176698866165579</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.09728675172574</v>
+        <v>-1.13911131792274</v>
       </c>
       <c r="H34" t="n">
-        <v>0.272516060424671</v>
+        <v>0.254656727483327</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.539251426592148</v>
+        <v>-0.547603092106924</v>
       </c>
       <c r="J34" t="n">
-        <v>0.152162831450289</v>
+        <v>0.145043735480271</v>
       </c>
     </row>
     <row r="35">
@@ -2212,22 +2212,22 @@
         <v>56</v>
       </c>
       <c r="E35" t="n">
-        <v>0.618148952827102</v>
+        <v>0.659816967055752</v>
       </c>
       <c r="F35" t="n">
-        <v>0.161224073579459</v>
+        <v>0.173325960949288</v>
       </c>
       <c r="G35" t="n">
-        <v>3.83409833967784</v>
+        <v>3.80679826289152</v>
       </c>
       <c r="H35" t="n">
-        <v>0.000126025719018097</v>
+        <v>0.000140777487631638</v>
       </c>
       <c r="I35" t="n">
-        <v>0.302155575170526</v>
+        <v>0.320104326009352</v>
       </c>
       <c r="J35" t="n">
-        <v>0.934142330483679</v>
+        <v>0.999529608102152</v>
       </c>
     </row>
     <row r="36">
@@ -2244,22 +2244,22 @@
         <v>37</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0365552494602243</v>
+        <v>0.0262326127272263</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0717807275095683</v>
+        <v>0.0783579601397069</v>
       </c>
       <c r="G36" t="n">
-        <v>0.509262732888177</v>
+        <v>0.33477916832515</v>
       </c>
       <c r="H36" t="n">
-        <v>0.610568076230522</v>
+        <v>0.737791675915025</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.104132391242613</v>
+        <v>-0.127346167048624</v>
       </c>
       <c r="J36" t="n">
-        <v>0.177242890163062</v>
+        <v>0.179811392503077</v>
       </c>
     </row>
     <row r="37">
@@ -2276,22 +2276,22 @@
         <v>53</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0012530304645833</v>
+        <v>-0.0114917161948231</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0584895031520665</v>
+        <v>0.0608571188972743</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0214231682106369</v>
+        <v>-0.188831091629903</v>
       </c>
       <c r="H37" t="n">
-        <v>0.982908092245845</v>
+        <v>0.850225202602791</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.113384289187109</v>
+        <v>-0.130769477436353</v>
       </c>
       <c r="J37" t="n">
-        <v>0.115890350116276</v>
+        <v>0.107786045046706</v>
       </c>
     </row>
     <row r="38">
@@ -2308,22 +2308,22 @@
         <v>28</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.180690020318105</v>
+        <v>-0.171034633123557</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0891820098455018</v>
+        <v>0.0887501608671726</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.02608150041842</v>
+        <v>-1.92714730263459</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0427564335190476</v>
+        <v>0.0539612751297247</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.355483547684185</v>
+        <v>-0.344981752045352</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.00589649295202488</v>
+        <v>0.00291248579823702</v>
       </c>
     </row>
     <row r="39">
@@ -2340,22 +2340,22 @@
         <v>13</v>
       </c>
       <c r="E39" t="n">
-        <v>1.08490023506141</v>
+        <v>0.983786922840475</v>
       </c>
       <c r="F39" t="n">
-        <v>0.193609939402428</v>
+        <v>0.180726409412446</v>
       </c>
       <c r="G39" t="n">
-        <v>5.60353584330392</v>
+        <v>5.44351501276893</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0000000210022659263842</v>
+        <v>0.0000000522393286406242</v>
       </c>
       <c r="I39" t="n">
-        <v>0.705431726783666</v>
+        <v>0.62956966933684</v>
       </c>
       <c r="J39" t="n">
-        <v>1.46436874333915</v>
+        <v>1.33800417634411</v>
       </c>
     </row>
     <row r="40">
@@ -2372,22 +2372,22 @@
         <v>15</v>
       </c>
       <c r="E40" t="n">
-        <v>0.638274277210323</v>
+        <v>0.374135840759981</v>
       </c>
       <c r="F40" t="n">
-        <v>0.177994268549021</v>
+        <v>0.147784820735213</v>
       </c>
       <c r="G40" t="n">
-        <v>3.5859260099408</v>
+        <v>2.53162563583118</v>
       </c>
       <c r="H40" t="n">
-        <v>0.000335884190229008</v>
+        <v>0.011353513583523</v>
       </c>
       <c r="I40" t="n">
-        <v>0.289411921399691</v>
+        <v>0.0844829146572547</v>
       </c>
       <c r="J40" t="n">
-        <v>0.987136633020956</v>
+        <v>0.663788766862708</v>
       </c>
     </row>
     <row r="41">
@@ -2404,22 +2404,22 @@
         <v>17</v>
       </c>
       <c r="E41" t="n">
-        <v>0.750138611247982</v>
+        <v>0.616057006024414</v>
       </c>
       <c r="F41" t="n">
-        <v>0.145571373555619</v>
+        <v>0.136229053162062</v>
       </c>
       <c r="G41" t="n">
-        <v>5.15306404635507</v>
+        <v>4.52221454766727</v>
       </c>
       <c r="H41" t="n">
-        <v>0.000000256264393483363</v>
+        <v>0.00000611959840512988</v>
       </c>
       <c r="I41" t="n">
-        <v>0.464823961898943</v>
+        <v>0.349052968178781</v>
       </c>
       <c r="J41" t="n">
-        <v>1.03545326059702</v>
+        <v>0.883061043870048</v>
       </c>
     </row>
     <row r="42">
@@ -2436,22 +2436,22 @@
         <v>20</v>
       </c>
       <c r="E42" t="n">
-        <v>1.28547646072153</v>
+        <v>1.28040471345683</v>
       </c>
       <c r="F42" t="n">
-        <v>0.197961128047165</v>
+        <v>0.198129701547981</v>
       </c>
       <c r="G42" t="n">
-        <v>6.49358019628611</v>
+        <v>6.4624571856368</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0000000000838200620023599</v>
+        <v>0.000000000103016262187339</v>
       </c>
       <c r="I42" t="n">
-        <v>0.897479779410164</v>
+        <v>0.892077634155113</v>
       </c>
       <c r="J42" t="n">
-        <v>1.67347314203289</v>
+        <v>1.66873179275854</v>
       </c>
     </row>
     <row r="43">
@@ -2468,22 +2468,22 @@
         <v>22</v>
       </c>
       <c r="E43" t="n">
-        <v>1.47002527799267</v>
+        <v>1.47573372964859</v>
       </c>
       <c r="F43" t="n">
-        <v>0.173615977997378</v>
+        <v>0.172968350447924</v>
       </c>
       <c r="G43" t="n">
-        <v>8.46710824054955</v>
+        <v>8.53181362848746</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.12974421397711</v>
+        <v>1.13672199230536</v>
       </c>
       <c r="J43" t="n">
-        <v>1.81030634200823</v>
+        <v>1.81474546699182</v>
       </c>
     </row>
     <row r="44">
@@ -2500,22 +2500,22 @@
         <v>24</v>
       </c>
       <c r="E44" t="n">
-        <v>2.27434972913451</v>
+        <v>2.27036105216286</v>
       </c>
       <c r="F44" t="n">
-        <v>0.246534349248119</v>
+        <v>0.247931971282514</v>
       </c>
       <c r="G44" t="n">
-        <v>9.2252853854679</v>
+        <v>9.15719356571335</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.79115128365618</v>
+        <v>1.78442331783312</v>
       </c>
       <c r="J44" t="n">
-        <v>2.75754817461284</v>
+        <v>2.75629878649261</v>
       </c>
     </row>
     <row r="45">
@@ -2532,22 +2532,22 @@
         <v>26</v>
       </c>
       <c r="E45" t="n">
-        <v>1.8257154981228</v>
+        <v>1.82784330959496</v>
       </c>
       <c r="F45" t="n">
-        <v>0.180492683032735</v>
+        <v>0.180750358921312</v>
       </c>
       <c r="G45" t="n">
-        <v>10.1151773437358</v>
+        <v>10.1125293498902</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.47195633990564</v>
+        <v>1.4735791159165</v>
       </c>
       <c r="J45" t="n">
-        <v>2.17947465633996</v>
+        <v>2.18210750327342</v>
       </c>
     </row>
     <row r="46">
@@ -2564,22 +2564,22 @@
         <v>29</v>
       </c>
       <c r="E46" t="n">
-        <v>2.1133884943449</v>
+        <v>2.11626447447136</v>
       </c>
       <c r="F46" t="n">
-        <v>0.213323591034638</v>
+        <v>0.212110160339951</v>
       </c>
       <c r="G46" t="n">
-        <v>9.90696098867821</v>
+        <v>9.97719520403738</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.69528193886426</v>
+        <v>1.70053619945004</v>
       </c>
       <c r="J46" t="n">
-        <v>2.53149504982554</v>
+        <v>2.53199274949268</v>
       </c>
     </row>
     <row r="47">
@@ -2596,22 +2596,22 @@
         <v>31</v>
       </c>
       <c r="E47" t="n">
-        <v>1.47075832628589</v>
+        <v>1.46846397101167</v>
       </c>
       <c r="F47" t="n">
-        <v>0.293940006812998</v>
+        <v>0.290119844480987</v>
       </c>
       <c r="G47" t="n">
-        <v>5.00360036809</v>
+        <v>5.0615771342312</v>
       </c>
       <c r="H47" t="n">
-        <v>0.000000562693475147924</v>
+        <v>0.000000415802451358971</v>
       </c>
       <c r="I47" t="n">
-        <v>0.894646499316961</v>
+        <v>0.899839524628579</v>
       </c>
       <c r="J47" t="n">
-        <v>2.04687015325483</v>
+        <v>2.03708841739477</v>
       </c>
     </row>
     <row r="48">
@@ -2628,22 +2628,22 @@
         <v>33</v>
       </c>
       <c r="E48" t="n">
-        <v>2.24746598214637</v>
+        <v>2.25135613445498</v>
       </c>
       <c r="F48" t="n">
-        <v>0.268921184264002</v>
+        <v>0.265700217598408</v>
       </c>
       <c r="G48" t="n">
-        <v>8.35734078851899</v>
+        <v>8.47329428182021</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1.72039014630907</v>
+        <v>1.73059327727764</v>
       </c>
       <c r="J48" t="n">
-        <v>2.77454181798368</v>
+        <v>2.77211899163231</v>
       </c>
     </row>
     <row r="49">
@@ -2660,22 +2660,22 @@
         <v>35</v>
       </c>
       <c r="E49" t="n">
-        <v>2.06330699329642</v>
+        <v>2.0591727813748</v>
       </c>
       <c r="F49" t="n">
-        <v>0.199168766603462</v>
+        <v>0.198131448383267</v>
       </c>
       <c r="G49" t="n">
-        <v>10.3595911572038</v>
+        <v>10.3929628445027</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1.67294338390837</v>
+        <v>1.67084227833884</v>
       </c>
       <c r="J49" t="n">
-        <v>2.45367060268447</v>
+        <v>2.44750328441076</v>
       </c>
     </row>
     <row r="50">
@@ -2692,22 +2692,22 @@
         <v>38</v>
       </c>
       <c r="E50" t="n">
-        <v>0.590231749519136</v>
+        <v>0.590157749141678</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0799873456436643</v>
+        <v>0.0799818611374516</v>
       </c>
       <c r="G50" t="n">
-        <v>7.37906408531869</v>
+        <v>7.37864486708395</v>
       </c>
       <c r="H50" t="n">
-        <v>0.000000000000159428026336172</v>
+        <v>0.000000000000159872115546023</v>
       </c>
       <c r="I50" t="n">
-        <v>0.433459432838597</v>
+        <v>0.433396181895789</v>
       </c>
       <c r="J50" t="n">
-        <v>0.747004066199674</v>
+        <v>0.746919316387567</v>
       </c>
     </row>
     <row r="51">
@@ -2724,22 +2724,22 @@
         <v>40</v>
       </c>
       <c r="E51" t="n">
-        <v>0.232921155125259</v>
+        <v>0.232954817496869</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0535600056095203</v>
+        <v>0.0536519215166734</v>
       </c>
       <c r="G51" t="n">
-        <v>4.34878884859297</v>
+        <v>4.34196597086412</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0000136891432902519</v>
+        <v>0.0000141213408557661</v>
       </c>
       <c r="I51" t="n">
-        <v>0.127945473118836</v>
+        <v>0.127798983622819</v>
       </c>
       <c r="J51" t="n">
-        <v>0.337896837131682</v>
+        <v>0.338110651370918</v>
       </c>
     </row>
     <row r="52">
@@ -2756,22 +2756,22 @@
         <v>42</v>
       </c>
       <c r="E52" t="n">
-        <v>0.341260496088064</v>
+        <v>0.341276350349468</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0604109721198491</v>
+        <v>0.060502497436666</v>
       </c>
       <c r="G52" t="n">
-        <v>5.64898203278436</v>
+        <v>5.64069856300917</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0000000161400721676586</v>
+        <v>0.0000000169361633606258</v>
       </c>
       <c r="I52" t="n">
-        <v>0.222857166462107</v>
+        <v>0.222693634398876</v>
       </c>
       <c r="J52" t="n">
-        <v>0.459663825714022</v>
+        <v>0.45985906630006</v>
       </c>
     </row>
     <row r="53">
@@ -2788,22 +2788,22 @@
         <v>45</v>
       </c>
       <c r="E53" t="n">
-        <v>1.58824603395832</v>
+        <v>1.58867408491338</v>
       </c>
       <c r="F53" t="n">
-        <v>0.49311761934342</v>
+        <v>0.493190420769712</v>
       </c>
       <c r="G53" t="n">
-        <v>3.22082596860572</v>
+        <v>3.22121845439328</v>
       </c>
       <c r="H53" t="n">
-        <v>0.00127821740862499</v>
+        <v>0.00127646810638127</v>
       </c>
       <c r="I53" t="n">
-        <v>0.621753259903084</v>
+        <v>0.622038622684591</v>
       </c>
       <c r="J53" t="n">
-        <v>2.55473880801355</v>
+        <v>2.55530954714217</v>
       </c>
     </row>
     <row r="54">
@@ -2820,22 +2820,22 @@
         <v>47</v>
       </c>
       <c r="E54" t="n">
-        <v>1.34454156870554</v>
+        <v>1.34389711976697</v>
       </c>
       <c r="F54" t="n">
-        <v>0.568815298648705</v>
+        <v>0.568950917796694</v>
       </c>
       <c r="G54" t="n">
-        <v>2.36375774684625</v>
+        <v>2.36206160800534</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0180906377548813</v>
+        <v>0.0181736217535151</v>
       </c>
       <c r="I54" t="n">
-        <v>0.229684069498681</v>
+        <v>0.228773811914445</v>
       </c>
       <c r="J54" t="n">
-        <v>2.45939906791239</v>
+        <v>2.4590204276195</v>
       </c>
     </row>
     <row r="55">
@@ -2852,22 +2852,22 @@
         <v>49</v>
       </c>
       <c r="E55" t="n">
-        <v>1.59746778635295</v>
+        <v>1.59767335972825</v>
       </c>
       <c r="F55" t="n">
-        <v>0.384921578171623</v>
+        <v>0.384962316499712</v>
       </c>
       <c r="G55" t="n">
-        <v>4.15011232662226</v>
+        <v>4.15020715340443</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0000332312156106074</v>
+        <v>0.0000332174509720673</v>
       </c>
       <c r="I55" t="n">
-        <v>0.843035356264246</v>
+        <v>0.843161083983701</v>
       </c>
       <c r="J55" t="n">
-        <v>2.35190021644165</v>
+        <v>2.35218563547279</v>
       </c>
     </row>
     <row r="56">
@@ -2884,22 +2884,22 @@
         <v>53</v>
       </c>
       <c r="E56" t="n">
-        <v>2.01880879238968</v>
+        <v>2.01880785213703</v>
       </c>
       <c r="F56" t="n">
-        <v>0.133138447422432</v>
+        <v>0.133138512745555</v>
       </c>
       <c r="G56" t="n">
-        <v>15.1632291909207</v>
+        <v>15.1632146890151</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1.75786223048414</v>
+        <v>1.75786116220051</v>
       </c>
       <c r="J56" t="n">
-        <v>2.27975535429523</v>
+        <v>2.27975454207354</v>
       </c>
     </row>
     <row r="57">
@@ -2916,22 +2916,22 @@
         <v>65</v>
       </c>
       <c r="E57" t="n">
-        <v>2.05897183959419</v>
+        <v>2.05765196368887</v>
       </c>
       <c r="F57" t="n">
-        <v>0.164011473814572</v>
+        <v>0.165155265779014</v>
       </c>
       <c r="G57" t="n">
-        <v>12.5538280445063</v>
+        <v>12.458894083596</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1.73751525786629</v>
+        <v>1.73395359090487</v>
       </c>
       <c r="J57" t="n">
-        <v>2.38042842132208</v>
+        <v>2.38135033647288</v>
       </c>
     </row>
     <row r="58">
@@ -2948,22 +2948,22 @@
         <v>11</v>
       </c>
       <c r="E58" t="n">
-        <v>1.95207077059121</v>
+        <v>2.38405692097586</v>
       </c>
       <c r="F58" t="n">
-        <v>0.260193683216354</v>
+        <v>0.233300210250462</v>
       </c>
       <c r="G58" t="n">
-        <v>7.50237571666196</v>
+        <v>10.2188374301782</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0000000000000626165785888588</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1.44210052248233</v>
+        <v>1.92679691129933</v>
       </c>
       <c r="J58" t="n">
-        <v>2.46204101870008</v>
+        <v>2.84131693065239</v>
       </c>
     </row>
     <row r="59">
@@ -2980,22 +2980,22 @@
         <v>19</v>
       </c>
       <c r="E59" t="n">
-        <v>1.57417775945978</v>
+        <v>1.57717037211966</v>
       </c>
       <c r="F59" t="n">
-        <v>0.219993366923666</v>
+        <v>0.220708632901447</v>
       </c>
       <c r="G59" t="n">
-        <v>7.15556919498395</v>
+        <v>7.14593874913769</v>
       </c>
       <c r="H59" t="n">
-        <v>0.000000000000833333402283642</v>
+        <v>0.000000000000893729534823251</v>
       </c>
       <c r="I59" t="n">
-        <v>1.14299868345169</v>
+        <v>1.14458940055575</v>
       </c>
       <c r="J59" t="n">
-        <v>2.00535683546787</v>
+        <v>2.00975134368356</v>
       </c>
     </row>
     <row r="60">
@@ -3012,22 +3012,22 @@
         <v>28</v>
       </c>
       <c r="E60" t="n">
-        <v>0.543418870219582</v>
+        <v>0.528807721781642</v>
       </c>
       <c r="F60" t="n">
-        <v>0.157336896899761</v>
+        <v>0.152524397480457</v>
       </c>
       <c r="G60" t="n">
-        <v>3.45385526807354</v>
+        <v>3.46703694960931</v>
       </c>
       <c r="H60" t="n">
-        <v>0.000552633873186048</v>
+        <v>0.000526229547543888</v>
       </c>
       <c r="I60" t="n">
-        <v>0.235044218856759</v>
+        <v>0.229865395956274</v>
       </c>
       <c r="J60" t="n">
-        <v>0.851793521582405</v>
+        <v>0.82775004760701</v>
       </c>
     </row>
     <row r="61">
@@ -3044,22 +3044,22 @@
         <v>37</v>
       </c>
       <c r="E61" t="n">
-        <v>1.53448611383614</v>
+        <v>1.53456190349259</v>
       </c>
       <c r="F61" t="n">
-        <v>0.156134563656422</v>
+        <v>0.156122775622118</v>
       </c>
       <c r="G61" t="n">
-        <v>9.82797196149864</v>
+        <v>9.82919947059401</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1.22846799232768</v>
+        <v>1.22856688610681</v>
       </c>
       <c r="J61" t="n">
-        <v>1.8405042353446</v>
+        <v>1.84055692087837</v>
       </c>
     </row>
     <row r="62">
@@ -3076,22 +3076,22 @@
         <v>44</v>
       </c>
       <c r="E62" t="n">
-        <v>5.4577508393044</v>
+        <v>5.45731499902701</v>
       </c>
       <c r="F62" t="n">
-        <v>1.03123990284894</v>
+        <v>1.03125011745614</v>
       </c>
       <c r="G62" t="n">
-        <v>5.29241626921787</v>
+        <v>5.2919412145028</v>
       </c>
       <c r="H62" t="n">
-        <v>0.000000120710742068653</v>
+        <v>0.000000121024797961056</v>
       </c>
       <c r="I62" t="n">
-        <v>3.43655777029989</v>
+        <v>3.43610190976027</v>
       </c>
       <c r="J62" t="n">
-        <v>7.47894390830891</v>
+        <v>7.47852808829375</v>
       </c>
     </row>
     <row r="63">
@@ -3108,22 +3108,22 @@
         <v>44</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.108779686579434</v>
+        <v>-0.10868343903338</v>
       </c>
       <c r="F63" t="n">
-        <v>0.197401895550516</v>
+        <v>0.197429544126939</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.551056950471872</v>
+        <v>-0.550492275682412</v>
       </c>
       <c r="H63" t="n">
-        <v>0.581594635046786</v>
+        <v>0.581981773454765</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.495680292338383</v>
+        <v>-0.495638235006343</v>
       </c>
       <c r="J63" t="n">
-        <v>0.278120919179514</v>
+        <v>0.278271356939582</v>
       </c>
     </row>
     <row r="64">
@@ -3214,22 +3214,22 @@
         <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0.808635478562291</v>
+        <v>0.846837286274966</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0380722953001038</v>
+        <v>0.0285079694203065</v>
       </c>
       <c r="G2" t="n">
-        <v>21.2394727501519</v>
+        <v>29.7052825401081</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.734015150965314</v>
+        <v>0.790962692938796</v>
       </c>
       <c r="J2" t="n">
-        <v>0.883255806159268</v>
+        <v>0.902711879611136</v>
       </c>
     </row>
     <row r="3">
@@ -3246,22 +3246,22 @@
         <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>0.903612454149239</v>
+        <v>0.944473848675526</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0279984514552217</v>
+        <v>0.0223579908711776</v>
       </c>
       <c r="G3" t="n">
-        <v>32.2736582626507</v>
+        <v>42.2432343817207</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.848736497674111</v>
+        <v>0.900652991801343</v>
       </c>
       <c r="J3" t="n">
-        <v>0.958488410624366</v>
+        <v>0.98829470554971</v>
       </c>
     </row>
     <row r="4">
@@ -3278,22 +3278,22 @@
         <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>0.885192100278417</v>
+        <v>0.894511942970935</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0242973097867031</v>
+        <v>0.0258533987952279</v>
       </c>
       <c r="G4" t="n">
-        <v>36.4316917407393</v>
+        <v>34.5993944570277</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.837570248175266</v>
+        <v>0.843840212454337</v>
       </c>
       <c r="J4" t="n">
-        <v>0.932813952381568</v>
+        <v>0.945183673487533</v>
       </c>
     </row>
     <row r="5">
@@ -3310,22 +3310,22 @@
         <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>0.77291308918995</v>
+        <v>0.773955773913818</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0401807074626506</v>
+        <v>0.0402464232879953</v>
       </c>
       <c r="G5" t="n">
-        <v>19.2359253482135</v>
+        <v>19.2304237416464</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.694160349689815</v>
+        <v>0.695074233762793</v>
       </c>
       <c r="J5" t="n">
-        <v>0.851665828690085</v>
+        <v>0.852837314064843</v>
       </c>
     </row>
     <row r="6">
@@ -3342,22 +3342,22 @@
         <v>22</v>
       </c>
       <c r="E6" t="n">
-        <v>0.66214354593775</v>
+        <v>0.660512851191603</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0488169123362795</v>
+        <v>0.0486872605177154</v>
       </c>
       <c r="G6" t="n">
-        <v>13.5638145521478</v>
+        <v>13.5664410806451</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.566464155922193</v>
+        <v>0.565087574070962</v>
       </c>
       <c r="J6" t="n">
-        <v>0.757822935953306</v>
+        <v>0.755938128312244</v>
       </c>
     </row>
     <row r="7">
@@ -3374,22 +3374,22 @@
         <v>24</v>
       </c>
       <c r="E7" t="n">
-        <v>0.547620665602494</v>
+        <v>0.548759098102069</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0573090285973259</v>
+        <v>0.0576482896352299</v>
       </c>
       <c r="G7" t="n">
-        <v>9.55557403442092</v>
+        <v>9.5190872370082</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.435297033562759</v>
+        <v>0.435770526646685</v>
       </c>
       <c r="J7" t="n">
-        <v>0.659944297642228</v>
+        <v>0.661747669557453</v>
       </c>
     </row>
     <row r="8">
@@ -3406,22 +3406,22 @@
         <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>0.487341179019762</v>
+        <v>0.486446412246382</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0610764442491921</v>
+        <v>0.0611906965969349</v>
       </c>
       <c r="G8" t="n">
-        <v>7.97920024668444</v>
+        <v>7.94967926988346</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00000000000000155431223447522</v>
+        <v>0.00000000000000177635683940025</v>
       </c>
       <c r="I8" t="n">
-        <v>0.367633547987577</v>
+        <v>0.366514850727472</v>
       </c>
       <c r="J8" t="n">
-        <v>0.607048810051947</v>
+        <v>0.606377973765292</v>
       </c>
     </row>
     <row r="9">
@@ -3438,22 +3438,22 @@
         <v>29</v>
       </c>
       <c r="E9" t="n">
-        <v>0.482841227161696</v>
+        <v>0.48180780807004</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0649227379425088</v>
+        <v>0.0643784819779309</v>
       </c>
       <c r="G9" t="n">
-        <v>7.43716673793498</v>
+        <v>7.48398833379148</v>
       </c>
       <c r="H9" t="n">
-        <v>0.000000000000102806652080289</v>
+        <v>0.0000000000000721644966006352</v>
       </c>
       <c r="I9" t="n">
-        <v>0.355594999016647</v>
+        <v>0.355628302013935</v>
       </c>
       <c r="J9" t="n">
-        <v>0.610087455306745</v>
+        <v>0.607987314126146</v>
       </c>
     </row>
     <row r="10">
@@ -3470,22 +3470,22 @@
         <v>31</v>
       </c>
       <c r="E10" t="n">
-        <v>0.783665706321578</v>
+        <v>0.784089861762716</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0490228668614535</v>
+        <v>0.048225253118096</v>
       </c>
       <c r="G10" t="n">
-        <v>15.9857176149315</v>
+        <v>16.258906093092</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.687582652854227</v>
+        <v>0.68957010250592</v>
       </c>
       <c r="J10" t="n">
-        <v>0.879748759788929</v>
+        <v>0.878609621019512</v>
       </c>
     </row>
     <row r="11">
@@ -3502,22 +3502,22 @@
         <v>33</v>
       </c>
       <c r="E11" t="n">
-        <v>0.634820920146033</v>
+        <v>0.634055422157836</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0532263541739907</v>
+        <v>0.0525061584442405</v>
       </c>
       <c r="G11" t="n">
-        <v>11.926815766319</v>
+        <v>12.0758295968496</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.530499182936638</v>
+        <v>0.531145242640571</v>
       </c>
       <c r="J11" t="n">
-        <v>0.739142657355428</v>
+        <v>0.736965601675101</v>
       </c>
     </row>
     <row r="12">
@@ -3534,22 +3534,22 @@
         <v>35</v>
       </c>
       <c r="E12" t="n">
-        <v>0.516641228654415</v>
+        <v>0.518114162727413</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0579081633177113</v>
+        <v>0.057493059612436</v>
       </c>
       <c r="G12" t="n">
-        <v>8.92173398454858</v>
+        <v>9.01176883296959</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.403143314140837</v>
+        <v>0.405429836526024</v>
       </c>
       <c r="J12" t="n">
-        <v>0.630139143167993</v>
+        <v>0.630798488928802</v>
       </c>
     </row>
     <row r="13">
@@ -3566,22 +3566,22 @@
         <v>38</v>
       </c>
       <c r="E13" t="n">
-        <v>0.849827629552613</v>
+        <v>0.849848258331595</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0224622045212107</v>
+        <v>0.0224583757478225</v>
       </c>
       <c r="G13" t="n">
-        <v>37.833669831923</v>
+        <v>37.8410383668994</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.805802517677667</v>
+        <v>0.805830650714595</v>
       </c>
       <c r="J13" t="n">
-        <v>0.893852741427559</v>
+        <v>0.893865865948595</v>
       </c>
     </row>
     <row r="14">
@@ -3598,22 +3598,22 @@
         <v>40</v>
       </c>
       <c r="E14" t="n">
-        <v>0.944494892961344</v>
+        <v>0.94448664337772</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0137492198229746</v>
+        <v>0.0137694848731281</v>
       </c>
       <c r="G14" t="n">
-        <v>68.6944354022997</v>
+        <v>68.5927361902214</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.91754691729279</v>
+        <v>0.917498948940719</v>
       </c>
       <c r="J14" t="n">
-        <v>0.971442868629899</v>
+        <v>0.97147433781472</v>
       </c>
     </row>
     <row r="15">
@@ -3630,22 +3630,22 @@
         <v>42</v>
       </c>
       <c r="E15" t="n">
-        <v>0.921085853934783</v>
+        <v>0.921082089391732</v>
       </c>
       <c r="F15" t="n">
-        <v>0.015536541127353</v>
+        <v>0.0155600925153301</v>
       </c>
       <c r="G15" t="n">
-        <v>59.2851295783691</v>
+        <v>59.1951550727778</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.890634792880846</v>
+        <v>0.890584868465573</v>
       </c>
       <c r="J15" t="n">
-        <v>0.95153691498872</v>
+        <v>0.95157931031789</v>
       </c>
     </row>
     <row r="16">
@@ -3662,22 +3662,22 @@
         <v>45</v>
       </c>
       <c r="E16" t="n">
-        <v>0.880107312667611</v>
+        <v>0.880072657005862</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0427833871052766</v>
+        <v>0.0427913720632781</v>
       </c>
       <c r="G16" t="n">
-        <v>20.571239731486</v>
+        <v>20.5665912208762</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.796253414804634</v>
+        <v>0.796203108912783</v>
       </c>
       <c r="J16" t="n">
-        <v>0.963961210530588</v>
+        <v>0.96394220509894</v>
       </c>
     </row>
     <row r="17">
@@ -3694,22 +3694,22 @@
         <v>47</v>
       </c>
       <c r="E17" t="n">
-        <v>0.911396216466935</v>
+        <v>0.911440694080434</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0395513073140599</v>
+        <v>0.0395607770432417</v>
       </c>
       <c r="G17" t="n">
-        <v>23.0433904303069</v>
+        <v>23.038998781146</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.833877078589902</v>
+        <v>0.833902995875262</v>
       </c>
       <c r="J17" t="n">
-        <v>0.988915354343968</v>
+        <v>0.988978392285607</v>
       </c>
     </row>
     <row r="18">
@@ -3726,22 +3726,22 @@
         <v>49</v>
       </c>
       <c r="E18" t="n">
-        <v>0.880902952516156</v>
+        <v>0.880886564710459</v>
       </c>
       <c r="F18" t="n">
-        <v>0.032835326877497</v>
+        <v>0.0328400758450503</v>
       </c>
       <c r="G18" t="n">
-        <v>26.8279026367745</v>
+        <v>26.8235240645228</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.816546894415662</v>
+        <v>0.816521198804596</v>
       </c>
       <c r="J18" t="n">
-        <v>0.94525901061665</v>
+        <v>0.945251930616321</v>
       </c>
     </row>
     <row r="19">
@@ -3758,22 +3758,22 @@
         <v>11</v>
       </c>
       <c r="E19" t="n">
-        <v>0.377078448770699</v>
+        <v>0.402121873970988</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0706540912526775</v>
+        <v>0.0690450150029611</v>
       </c>
       <c r="G19" t="n">
-        <v>5.33696551870107</v>
+        <v>5.82405368372708</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0000000945150053777155</v>
+        <v>0.00000000574371128436724</v>
       </c>
       <c r="I19" t="n">
-        <v>0.238598974555044</v>
+        <v>0.266796131253156</v>
       </c>
       <c r="J19" t="n">
-        <v>0.515557922986353</v>
+        <v>0.537447616688819</v>
       </c>
     </row>
     <row r="20">
@@ -3790,22 +3790,22 @@
         <v>53</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00520024813750158</v>
+        <v>0.00993068416853309</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0640280028334591</v>
+        <v>0.0639078523330299</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0812183405287176</v>
+        <v>0.15539067275776</v>
       </c>
       <c r="H20" t="n">
-        <v>0.935268314067381</v>
+        <v>0.876513336913751</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.120292331418107</v>
+        <v>-0.115326404733509</v>
       </c>
       <c r="J20" t="n">
-        <v>0.13069282769311</v>
+        <v>0.135187773070576</v>
       </c>
     </row>
     <row r="21">
@@ -3822,22 +3822,22 @@
         <v>44</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0205039984137875</v>
+        <v>0.0236865794958483</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08083354757103</v>
+        <v>0.0811653845221933</v>
       </c>
       <c r="G21" t="n">
-        <v>0.253657040052216</v>
+        <v>0.291831051319318</v>
       </c>
       <c r="H21" t="n">
-        <v>0.799760525778884</v>
+        <v>0.770415802618173</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.137926843568037</v>
+        <v>-0.135394650958995</v>
       </c>
       <c r="J21" t="n">
-        <v>0.178934840395611</v>
+        <v>0.182767809950692</v>
       </c>
     </row>
     <row r="22">
@@ -3854,22 +3854,22 @@
         <v>56</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.0412195393866674</v>
+        <v>-0.043962782141397</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0618798066017827</v>
+        <v>0.0606927249098408</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.666122627886168</v>
+        <v>-0.724350112912277</v>
       </c>
       <c r="H22" t="n">
-        <v>0.505332722324126</v>
+        <v>0.46885081856876</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.162501731696465</v>
+        <v>-0.162918337088282</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0800626529231306</v>
+        <v>0.074992772805488</v>
       </c>
     </row>
     <row r="23">
@@ -3886,22 +3886,22 @@
         <v>37</v>
       </c>
       <c r="E23" t="n">
-        <v>0.117672431507031</v>
+        <v>0.121357796888906</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0690354878705139</v>
+        <v>0.0685545239083792</v>
       </c>
       <c r="G23" t="n">
-        <v>1.70452089406166</v>
+        <v>1.77023761482315</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0882838159856751</v>
+        <v>0.0766875656575561</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.017634638374328</v>
+        <v>-0.0130066009488075</v>
       </c>
       <c r="J23" t="n">
-        <v>0.25297950138839</v>
+        <v>0.255722194726619</v>
       </c>
     </row>
     <row r="24">
@@ -3918,22 +3918,22 @@
         <v>11</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.356711373448233</v>
+        <v>-0.357261128041216</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0629478344698408</v>
+        <v>0.0618156350731959</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.66677752225358</v>
+        <v>-5.77946222857992</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0000000145508072257883</v>
+        <v>0.00000000749397766064419</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.48008686191391</v>
+        <v>-0.478417546466151</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.233335884982556</v>
+        <v>-0.236104709616281</v>
       </c>
     </row>
     <row r="25">
@@ -3950,22 +3950,22 @@
         <v>53</v>
       </c>
       <c r="E25" t="n">
-        <v>0.041752020296638</v>
+        <v>0.0376708597637978</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0636802268875469</v>
+        <v>0.0639299516234494</v>
       </c>
       <c r="G25" t="n">
-        <v>0.655651249019073</v>
+        <v>0.589252123725684</v>
       </c>
       <c r="H25" t="n">
-        <v>0.51204854284378</v>
+        <v>0.555692156093655</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.083058930930293</v>
+        <v>-0.087629542951551</v>
       </c>
       <c r="J25" t="n">
-        <v>0.166562971523569</v>
+        <v>0.162971262479147</v>
       </c>
     </row>
     <row r="26">
@@ -3982,22 +3982,22 @@
         <v>44</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.0159724659904851</v>
+        <v>-0.0175200396635086</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0640314211343106</v>
+        <v>0.0647743186677866</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.249447313639684</v>
+        <v>-0.270478177522253</v>
       </c>
       <c r="H26" t="n">
-        <v>0.803014790530127</v>
+        <v>0.786792403288081</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.141471745292651</v>
+        <v>-0.144475371375491</v>
       </c>
       <c r="J26" t="n">
-        <v>0.10952681331168</v>
+        <v>0.109435292048474</v>
       </c>
     </row>
     <row r="27">
@@ -4014,22 +4014,22 @@
         <v>56</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0669874264065072</v>
+        <v>0.0647815281782788</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0605879671420011</v>
+        <v>0.0605220130053874</v>
       </c>
       <c r="G27" t="n">
-        <v>1.10562261066636</v>
+        <v>1.07037960175767</v>
       </c>
       <c r="H27" t="n">
-        <v>0.268889899034753</v>
+        <v>0.284448477117967</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.0517628070883112</v>
+        <v>-0.0538394375841452</v>
       </c>
       <c r="J27" t="n">
-        <v>0.185737659901325</v>
+        <v>0.183402493940703</v>
       </c>
     </row>
     <row r="28">
@@ -4046,22 +4046,22 @@
         <v>37</v>
       </c>
       <c r="E28" t="n">
-        <v>0.234077413409857</v>
+        <v>0.229719522783761</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0663223226690771</v>
+        <v>0.0659299961729318</v>
       </c>
       <c r="G28" t="n">
-        <v>3.52939107060247</v>
+        <v>3.48429449595622</v>
       </c>
       <c r="H28" t="n">
-        <v>0.00041651713385682</v>
+        <v>0.000493436227829935</v>
       </c>
       <c r="I28" t="n">
-        <v>0.104088049607421</v>
+        <v>0.100499104783951</v>
       </c>
       <c r="J28" t="n">
-        <v>0.364066777212292</v>
+        <v>0.358939940783571</v>
       </c>
     </row>
     <row r="29">
@@ -4078,22 +4078,22 @@
         <v>37</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0843283244801989</v>
+        <v>0.0843280267816549</v>
       </c>
       <c r="F29" t="n">
-        <v>0.060210827120983</v>
+        <v>0.0602102887616579</v>
       </c>
       <c r="G29" t="n">
-        <v>1.40055083964809</v>
+        <v>1.4005584181047</v>
       </c>
       <c r="H29" t="n">
-        <v>0.161348430413907</v>
+        <v>0.161346162769518</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.0336827281562954</v>
+        <v>-0.0336819706899513</v>
       </c>
       <c r="J29" t="n">
-        <v>0.202339377116693</v>
+        <v>0.202338024253261</v>
       </c>
     </row>
     <row r="30">
@@ -4110,22 +4110,22 @@
         <v>28</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.224749729845161</v>
+        <v>-0.228633333842315</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0670708006397892</v>
+        <v>0.067226767113943</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.35093256232624</v>
+        <v>-3.40092709582186</v>
       </c>
       <c r="H30" t="n">
-        <v>0.000805399134784723</v>
+        <v>0.000671577358356323</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.356206083513414</v>
+        <v>-0.360395376182705</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.0932933761769087</v>
+        <v>-0.0968712915019248</v>
       </c>
     </row>
     <row r="31">
@@ -4142,22 +4142,22 @@
         <v>19</v>
       </c>
       <c r="E31" t="n">
-        <v>0.465877360992638</v>
+        <v>0.469131468097299</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0670578987941004</v>
+        <v>0.0674949335210678</v>
       </c>
       <c r="G31" t="n">
-        <v>6.94738978361226</v>
+        <v>6.95061752969747</v>
       </c>
       <c r="H31" t="n">
-        <v>0.00000000000372102348933367</v>
+        <v>0.00000000000363686858406709</v>
       </c>
       <c r="I31" t="n">
-        <v>0.334446294477269</v>
+        <v>0.336843829257081</v>
       </c>
       <c r="J31" t="n">
-        <v>0.597308427508007</v>
+        <v>0.601419106937517</v>
       </c>
     </row>
     <row r="32">
@@ -4174,22 +4174,22 @@
         <v>11</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0166990690568144</v>
+        <v>0.0288324008623587</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0722507428968663</v>
+        <v>0.0720781526628078</v>
       </c>
       <c r="G32" t="n">
-        <v>0.231126606969998</v>
+        <v>0.400015813352499</v>
       </c>
       <c r="H32" t="n">
-        <v>0.817216445288403</v>
+        <v>0.689144869645101</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.124909784877307</v>
+        <v>-0.112438182428924</v>
       </c>
       <c r="J32" t="n">
-        <v>0.158307922990935</v>
+        <v>0.170102984153642</v>
       </c>
     </row>
     <row r="33">
@@ -4206,22 +4206,22 @@
         <v>37</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.126330049202402</v>
+        <v>-0.126452244307136</v>
       </c>
       <c r="F33" t="n">
-        <v>0.054918353708971</v>
+        <v>0.0548248835196551</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.30032476705079</v>
+        <v>-2.30647538470013</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0214298275367923</v>
+        <v>0.0210840840038606</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.233968044562216</v>
+        <v>-0.233907041462264</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.0186920538425869</v>
+        <v>-0.0189974471520089</v>
       </c>
     </row>
     <row r="34">
@@ -4238,22 +4238,22 @@
         <v>56</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.0557969564869363</v>
+        <v>-0.0580257492812933</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0507958292430572</v>
+        <v>0.0508868148252422</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.09845547003374</v>
+        <v>-1.14029045599667</v>
       </c>
       <c r="H34" t="n">
-        <v>0.272005652052487</v>
+        <v>0.2541653126657</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.155354952368175</v>
+        <v>-0.157762073626727</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0437610393943024</v>
+        <v>0.0417105750641403</v>
       </c>
     </row>
     <row r="35">
@@ -4270,22 +4270,22 @@
         <v>56</v>
       </c>
       <c r="E35" t="n">
-        <v>0.215884609976055</v>
+        <v>0.208897783692374</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0550031737651702</v>
+        <v>0.0537471384298079</v>
       </c>
       <c r="G35" t="n">
-        <v>3.92494823840074</v>
+        <v>3.88667731520605</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0000867483889945841</v>
+        <v>0.000101625701169006</v>
       </c>
       <c r="I35" t="n">
-        <v>0.108080370360923</v>
+        <v>0.103555328097862</v>
       </c>
       <c r="J35" t="n">
-        <v>0.323688849591187</v>
+        <v>0.314240239286886</v>
       </c>
     </row>
     <row r="36">
@@ -4302,22 +4302,22 @@
         <v>37</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0316293141277021</v>
+        <v>0.0205766231053996</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0622508903467483</v>
+        <v>0.0616607432827855</v>
       </c>
       <c r="G36" t="n">
-        <v>0.508094164621924</v>
+        <v>0.333707023462758</v>
       </c>
       <c r="H36" t="n">
-        <v>0.611387307396087</v>
+        <v>0.738600649161437</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.0903801889574767</v>
+        <v>-0.10027621298883</v>
       </c>
       <c r="J36" t="n">
-        <v>0.153638817212881</v>
+        <v>0.141429459199629</v>
       </c>
     </row>
     <row r="37">
@@ -4334,22 +4334,22 @@
         <v>53</v>
       </c>
       <c r="E37" t="n">
-        <v>0.00124800829961444</v>
+        <v>-0.0103758200483619</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0582429023157956</v>
+        <v>0.0550035531740462</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0214276461163918</v>
+        <v>-0.188639086924621</v>
       </c>
       <c r="H37" t="n">
-        <v>0.98290452021394</v>
+        <v>0.850375695826399</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.112905982594429</v>
+        <v>-0.118180803291226</v>
       </c>
       <c r="J37" t="n">
-        <v>0.115401999193658</v>
+        <v>0.0974291631945024</v>
       </c>
     </row>
     <row r="38">
@@ -4366,22 +4366,22 @@
         <v>28</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.195361923673798</v>
+        <v>-0.18728192353996</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0939751403972421</v>
+        <v>0.0951622006419742</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.07886812244157</v>
+        <v>-1.96802850581992</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0376294733996292</v>
+        <v>0.0490647579286199</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.379549814294487</v>
+        <v>-0.373796409487804</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.0111740330531083</v>
+        <v>-0.00076743759211631</v>
       </c>
     </row>
     <row r="39">
@@ -4398,22 +4398,22 @@
         <v>13</v>
       </c>
       <c r="E39" t="n">
-        <v>0.346108662810335</v>
+        <v>0.282866610574451</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0615732173510747</v>
+        <v>0.0482832215149189</v>
       </c>
       <c r="G39" t="n">
-        <v>5.62109107985883</v>
+        <v>5.85848668956459</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0000000189755193780172</v>
+        <v>0.000000004671040443327</v>
       </c>
       <c r="I39" t="n">
-        <v>0.225427374389972</v>
+        <v>0.18823323534764</v>
       </c>
       <c r="J39" t="n">
-        <v>0.466789951230699</v>
+        <v>0.377499985801261</v>
       </c>
     </row>
     <row r="40">
@@ -4430,22 +4430,22 @@
         <v>15</v>
       </c>
       <c r="E40" t="n">
-        <v>0.18348453270639</v>
+        <v>0.107969149168039</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0505994981780907</v>
+        <v>0.0422330742629301</v>
       </c>
       <c r="G40" t="n">
-        <v>3.62621249840453</v>
+        <v>2.55650698066299</v>
       </c>
       <c r="H40" t="n">
-        <v>0.000287608704733655</v>
+        <v>0.0105728949666248</v>
       </c>
       <c r="I40" t="n">
-        <v>0.084311338641532</v>
+        <v>0.0251938446562909</v>
       </c>
       <c r="J40" t="n">
-        <v>0.282657726771248</v>
+        <v>0.190744453679788</v>
       </c>
     </row>
     <row r="41">
@@ -4462,22 +4462,22 @@
         <v>17</v>
       </c>
       <c r="E41" t="n">
-        <v>0.216434945604685</v>
+        <v>0.199848383882362</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0430155723785781</v>
+        <v>0.046252348267239</v>
       </c>
       <c r="G41" t="n">
-        <v>5.03154866102562</v>
+        <v>4.32082675516644</v>
       </c>
       <c r="H41" t="n">
-        <v>0.000000486533580534854</v>
+        <v>0.0000155445684544286</v>
       </c>
       <c r="I41" t="n">
-        <v>0.132125972968296</v>
+        <v>0.10919544707817</v>
       </c>
       <c r="J41" t="n">
-        <v>0.300743918241074</v>
+        <v>0.290501320686554</v>
       </c>
     </row>
     <row r="42">
@@ -4494,22 +4494,22 @@
         <v>20</v>
       </c>
       <c r="E42" t="n">
-        <v>0.402605356558848</v>
+        <v>0.400992460025463</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0621123885476955</v>
+        <v>0.0622979014372853</v>
       </c>
       <c r="G42" t="n">
-        <v>6.48188495037012</v>
+        <v>6.43669290255529</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0000000000905837627129813</v>
+        <v>0.000000000122104548694324</v>
       </c>
       <c r="I42" t="n">
-        <v>0.280867312011607</v>
+        <v>0.278890816895958</v>
       </c>
       <c r="J42" t="n">
-        <v>0.52434340110609</v>
+        <v>0.523094103154968</v>
       </c>
     </row>
     <row r="43">
@@ -4526,22 +4526,22 @@
         <v>22</v>
       </c>
       <c r="E43" t="n">
-        <v>0.561565924572983</v>
+        <v>0.563722773410739</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0646476058473442</v>
+        <v>0.0643171232634967</v>
       </c>
       <c r="G43" t="n">
-        <v>8.68656955215076</v>
+        <v>8.76473860780836</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.434858945425448</v>
+        <v>0.437663528225062</v>
       </c>
       <c r="J43" t="n">
-        <v>0.688272903720519</v>
+        <v>0.689782018596416</v>
       </c>
     </row>
     <row r="44">
@@ -4558,22 +4558,22 @@
         <v>24</v>
       </c>
       <c r="E44" t="n">
-        <v>0.700111606605082</v>
+        <v>0.698863452250204</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0627672172643369</v>
+        <v>0.0632700466431673</v>
       </c>
       <c r="G44" t="n">
-        <v>11.1540966306765</v>
+        <v>11.0457236769823</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.577090121357181</v>
+        <v>0.574856439529427</v>
       </c>
       <c r="J44" t="n">
-        <v>0.823133091852983</v>
+        <v>0.822870464970981</v>
       </c>
     </row>
     <row r="45">
@@ -4590,22 +4590,22 @@
         <v>26</v>
       </c>
       <c r="E45" t="n">
-        <v>0.762498575231628</v>
+        <v>0.763369888012623</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0595301335709266</v>
+        <v>0.0595319900208535</v>
       </c>
       <c r="G45" t="n">
-        <v>12.8086152254834</v>
+        <v>12.8228518439451</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.645821657437754</v>
+        <v>0.646689331643752</v>
       </c>
       <c r="J45" t="n">
-        <v>0.879175493025503</v>
+        <v>0.880050444381494</v>
       </c>
     </row>
     <row r="46">
@@ -4622,22 +4622,22 @@
         <v>29</v>
       </c>
       <c r="E46" t="n">
-        <v>0.766864349352988</v>
+        <v>0.767861236082743</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0626947487280501</v>
+        <v>0.0620361110090674</v>
       </c>
       <c r="G46" t="n">
-        <v>12.2317158121074</v>
+        <v>12.3776494624318</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.643984899826221</v>
+        <v>0.646272692764043</v>
       </c>
       <c r="J46" t="n">
-        <v>0.889743798879754</v>
+        <v>0.889449779401444</v>
       </c>
     </row>
     <row r="47">
@@ -4654,22 +4654,22 @@
         <v>31</v>
       </c>
       <c r="E47" t="n">
-        <v>0.385868060735502</v>
+        <v>0.385203088680925</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0768350765841229</v>
+        <v>0.0756258639588292</v>
       </c>
       <c r="G47" t="n">
-        <v>5.02203001402666</v>
+        <v>5.09353637124238</v>
       </c>
       <c r="H47" t="n">
-        <v>0.000000511281910808847</v>
+        <v>0.000000351445590629496</v>
       </c>
       <c r="I47" t="n">
-        <v>0.235274077881244</v>
+        <v>0.236979119021894</v>
       </c>
       <c r="J47" t="n">
-        <v>0.53646204358976</v>
+        <v>0.533427058339956</v>
       </c>
     </row>
     <row r="48">
@@ -4686,22 +4686,22 @@
         <v>33</v>
       </c>
       <c r="E48" t="n">
-        <v>0.597002399344944</v>
+        <v>0.597973721632248</v>
       </c>
       <c r="F48" t="n">
-        <v>0.067578406625392</v>
+        <v>0.0665836281898763</v>
       </c>
       <c r="G48" t="n">
-        <v>8.83421834217419</v>
+        <v>8.98079209392148</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.464551156226573</v>
+        <v>0.467472208420085</v>
       </c>
       <c r="J48" t="n">
-        <v>0.729453642463315</v>
+        <v>0.728475234844412</v>
       </c>
     </row>
     <row r="49">
@@ -4718,22 +4718,22 @@
         <v>35</v>
       </c>
       <c r="E49" t="n">
-        <v>0.733081840854456</v>
+        <v>0.731557714381272</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0598354895290979</v>
+        <v>0.0595759361332785</v>
       </c>
       <c r="G49" t="n">
-        <v>12.2516226845267</v>
+        <v>12.2794161848282</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.615806436380101</v>
+        <v>0.614791025214787</v>
       </c>
       <c r="J49" t="n">
-        <v>0.850357245328812</v>
+        <v>0.848324403547756</v>
       </c>
     </row>
     <row r="50">
@@ -4750,22 +4750,22 @@
         <v>38</v>
       </c>
       <c r="E50" t="n">
-        <v>0.277793000048987</v>
+        <v>0.277757937810755</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0381780039572755</v>
+        <v>0.0381724225096344</v>
       </c>
       <c r="G50" t="n">
-        <v>7.2762578253138</v>
+        <v>7.27640321335778</v>
       </c>
       <c r="H50" t="n">
-        <v>0.000000000000343280959214098</v>
+        <v>0.000000000000342836870004248</v>
       </c>
       <c r="I50" t="n">
-        <v>0.2029654872911</v>
+        <v>0.202941364489225</v>
       </c>
       <c r="J50" t="n">
-        <v>0.352620512806875</v>
+        <v>0.352574511132284</v>
       </c>
     </row>
     <row r="51">
@@ -4782,22 +4782,22 @@
         <v>40</v>
       </c>
       <c r="E51" t="n">
-        <v>0.107929397169938</v>
+        <v>0.107944980481088</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0259721345691929</v>
+        <v>0.0260101885664135</v>
       </c>
       <c r="G51" t="n">
-        <v>4.15558439690051</v>
+        <v>4.15010372590977</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0000324457146032575</v>
+        <v>0.0000332324643201876</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0570249488126924</v>
+        <v>0.0569659476598224</v>
       </c>
       <c r="J51" t="n">
-        <v>0.158833845527184</v>
+        <v>0.158924013302354</v>
       </c>
     </row>
     <row r="52">
@@ -4814,22 +4814,22 @@
         <v>42</v>
       </c>
       <c r="E52" t="n">
-        <v>0.151600849681231</v>
+        <v>0.151607784601762</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0286209759032579</v>
+        <v>0.0286642446838694</v>
       </c>
       <c r="G52" t="n">
-        <v>5.29684418147233</v>
+        <v>5.28909051237195</v>
       </c>
       <c r="H52" t="n">
-        <v>0.000000117821151279784</v>
+        <v>0.000000122926053780503</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0955047677084571</v>
+        <v>0.0954268973773341</v>
       </c>
       <c r="J52" t="n">
-        <v>0.207696931654006</v>
+        <v>0.20778867182619</v>
       </c>
     </row>
     <row r="53">
@@ -4846,22 +4846,22 @@
         <v>45</v>
       </c>
       <c r="E53" t="n">
-        <v>0.225411118188996</v>
+        <v>0.225472118390642</v>
       </c>
       <c r="F53" t="n">
-        <v>0.075307944857895</v>
+        <v>0.0753190334503823</v>
       </c>
       <c r="G53" t="n">
-        <v>2.99319173580349</v>
+        <v>2.99356096409782</v>
       </c>
       <c r="H53" t="n">
-        <v>0.00276076247816226</v>
+        <v>0.00275742414094826</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0778102585177935</v>
+        <v>0.0778495254775257</v>
       </c>
       <c r="J53" t="n">
-        <v>0.373011977860198</v>
+        <v>0.373094711303759</v>
       </c>
     </row>
     <row r="54">
@@ -4878,22 +4878,22 @@
         <v>47</v>
       </c>
       <c r="E54" t="n">
-        <v>0.169356936609757</v>
+        <v>0.169275861174176</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0720938220131641</v>
+        <v>0.0721146043048184</v>
       </c>
       <c r="G54" t="n">
-        <v>2.34911857743972</v>
+        <v>2.34731734030836</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0188179129532662</v>
+        <v>0.0189091421029208</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0280556419561141</v>
+        <v>0.0279338339773749</v>
       </c>
       <c r="J54" t="n">
-        <v>0.310658231263399</v>
+        <v>0.310617888370977</v>
       </c>
     </row>
     <row r="55">
@@ -4910,22 +4910,22 @@
         <v>49</v>
       </c>
       <c r="E55" t="n">
-        <v>0.224009988248318</v>
+        <v>0.224038860112607</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0578494756410548</v>
+        <v>0.0578567605471136</v>
       </c>
       <c r="G55" t="n">
-        <v>3.87229072979431</v>
+        <v>3.87230218204438</v>
       </c>
       <c r="H55" t="n">
-        <v>0.00010781723690112</v>
+        <v>0.000107812169590327</v>
       </c>
       <c r="I55" t="n">
-        <v>0.110627099467324</v>
+        <v>0.110641693178106</v>
       </c>
       <c r="J55" t="n">
-        <v>0.337392877029313</v>
+        <v>0.337436027047107</v>
       </c>
     </row>
     <row r="56">
@@ -4942,22 +4942,22 @@
         <v>53</v>
       </c>
       <c r="E56" t="n">
-        <v>0.992888733690362</v>
+        <v>0.992888783899113</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0101549575906086</v>
+        <v>0.010154830734778</v>
       </c>
       <c r="G56" t="n">
-        <v>97.7737942114692</v>
+        <v>97.7750205622529</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.972985382548238</v>
+        <v>0.972985681389847</v>
       </c>
       <c r="J56" t="n">
-        <v>1.01279208483249</v>
+        <v>1.01279188640838</v>
       </c>
     </row>
     <row r="57">
@@ -4974,22 +4974,22 @@
         <v>65</v>
       </c>
       <c r="E57" t="n">
-        <v>0.684495596849048</v>
+        <v>0.684027505172878</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0474504651536329</v>
+        <v>0.0478567064531712</v>
       </c>
       <c r="G57" t="n">
-        <v>14.4254770660903</v>
+        <v>14.2932423868787</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.591494394098255</v>
+        <v>0.590230084105957</v>
       </c>
       <c r="J57" t="n">
-        <v>0.777496799599842</v>
+        <v>0.777824926239799</v>
       </c>
     </row>
     <row r="58">
@@ -5006,22 +5006,22 @@
         <v>11</v>
       </c>
       <c r="E58" t="n">
-        <v>0.952385206645634</v>
+        <v>0.955866668864194</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0235852850728827</v>
+        <v>0.0224723046529549</v>
       </c>
       <c r="G58" t="n">
-        <v>40.380483157299</v>
+        <v>42.535319969441</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.906158897337674</v>
+        <v>0.911821761094791</v>
       </c>
       <c r="J58" t="n">
-        <v>0.998611515953594</v>
+        <v>0.999911576633598</v>
       </c>
     </row>
     <row r="59">
@@ -5038,22 +5038,22 @@
         <v>19</v>
       </c>
       <c r="E59" t="n">
-        <v>0.825292443111174</v>
+        <v>0.824584682914901</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0489218181307957</v>
+        <v>0.0474053002196784</v>
       </c>
       <c r="G59" t="n">
-        <v>16.8696192137565</v>
+        <v>17.3943563081288</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.729407441516595</v>
+        <v>0.731672001808022</v>
       </c>
       <c r="J59" t="n">
-        <v>0.921177444705752</v>
+        <v>0.917497364021779</v>
       </c>
     </row>
     <row r="60">
@@ -5070,22 +5070,22 @@
         <v>28</v>
       </c>
       <c r="E60" t="n">
-        <v>0.845795236390495</v>
+        <v>0.82653818596915</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0521525586529837</v>
+        <v>0.0549523534327219</v>
       </c>
       <c r="G60" t="n">
-        <v>16.2177131522598</v>
+        <v>15.0409970517656</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.743578099729034</v>
+        <v>0.718833552375299</v>
       </c>
       <c r="J60" t="n">
-        <v>0.948012373051955</v>
+        <v>0.934242819563001</v>
       </c>
     </row>
     <row r="61">
@@ -5158,22 +5158,22 @@
         <v>44</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.0375888872385524</v>
+        <v>-0.0375562010162736</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0671135154943622</v>
+        <v>0.0671239782288965</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.560079247252515</v>
+        <v>-0.55950499370292</v>
       </c>
       <c r="H63" t="n">
-        <v>0.575425385014045</v>
+        <v>0.575817124111964</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.169128960483373</v>
+        <v>-0.169116780843961</v>
       </c>
       <c r="J63" t="n">
-        <v>0.0939511860062683</v>
+        <v>0.0940043788114141</v>
       </c>
     </row>
     <row r="64">
@@ -5288,64 +5288,64 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>3.1345653883732</v>
+        <v>3.47791816376836</v>
       </c>
       <c r="C2" t="n">
-        <v>2.41283491104337</v>
+        <v>2.77660694710133</v>
       </c>
       <c r="D2" t="n">
-        <v>2.35931569463888</v>
+        <v>2.48030977393547</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.661669176651936</v>
+        <v>-0.741549950605031</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.513253748593981</v>
+        <v>-0.573021900426816</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.472871092576003</v>
+        <v>-0.530336807483055</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.361283472443326</v>
+        <v>-0.403604231567478</v>
       </c>
       <c r="I2" t="n">
-        <v>0.426789787209298</v>
+        <v>0.499254891793792</v>
       </c>
       <c r="J2" t="n">
-        <v>0.814631805494524</v>
+        <v>0.955558988337179</v>
       </c>
       <c r="K2" t="n">
-        <v>0.655826609470939</v>
+        <v>0.767915029147328</v>
       </c>
       <c r="L2" t="n">
-        <v>0.461502473465689</v>
+        <v>0.542565852904586</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0562801666208409</v>
+        <v>0.0385437949048251</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0630388234718814</v>
+        <v>0.0431710595973643</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0627864888086348</v>
+        <v>0.0429984647119302</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.00398969976362208</v>
+        <v>-0.00272981635613365</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.00438557160132156</v>
+        <v>-0.00300094358528397</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.00401738812057442</v>
+        <v>-0.00274881952070222</v>
       </c>
       <c r="S2" t="n">
-        <v>0.00799279831637499</v>
+        <v>-0.0194581905609246</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.593053569672062</v>
+        <v>-0.644838578878773</v>
       </c>
       <c r="U2" t="n">
-        <v>0.154537238206776</v>
+        <v>0.164954241763938</v>
       </c>
     </row>
     <row r="3">
@@ -5353,64 +5353,64 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>2.41283491104337</v>
+        <v>2.77660694710133</v>
       </c>
       <c r="C3" t="n">
-        <v>3.47862715072384</v>
+        <v>3.46521060546369</v>
       </c>
       <c r="D3" t="n">
-        <v>2.77735085899236</v>
+        <v>2.76122011394655</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.778906977272622</v>
+        <v>-0.825535044301265</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.604194573357735</v>
+        <v>-0.637920155706955</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.556656719633971</v>
+        <v>-0.590400713401578</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.425297455872602</v>
+        <v>-0.449314893643222</v>
       </c>
       <c r="I3" t="n">
-        <v>0.502410501828304</v>
+        <v>0.555798579553995</v>
       </c>
       <c r="J3" t="n">
-        <v>0.958972277382752</v>
+        <v>1.06378192207522</v>
       </c>
       <c r="K3" t="n">
-        <v>0.772029195288747</v>
+        <v>0.854886130178438</v>
       </c>
       <c r="L3" t="n">
-        <v>0.543273752647681</v>
+        <v>0.604014773446473</v>
       </c>
       <c r="M3" t="n">
-        <v>0.066252163482747</v>
+        <v>0.0429091167875237</v>
       </c>
       <c r="N3" t="n">
-        <v>0.074208352412243</v>
+        <v>0.0480604476720208</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0739113078516893</v>
+        <v>0.04786830535406</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.00469661440001291</v>
+        <v>-0.00303898485146743</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.00516262875789808</v>
+        <v>-0.00334081890721145</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.00472920871629725</v>
+        <v>-0.00306014024132509</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0094090016525468</v>
+        <v>-0.0216619503428315</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.698133719408543</v>
+        <v>-0.717870514788005</v>
       </c>
       <c r="U3" t="n">
-        <v>0.181918906509708</v>
+        <v>0.183636324392131</v>
       </c>
     </row>
     <row r="4">
@@ -5418,64 +5418,64 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>2.35931569463888</v>
+        <v>2.48030977393547</v>
       </c>
       <c r="C4" t="n">
-        <v>2.77735085899236</v>
+        <v>2.76122011394655</v>
       </c>
       <c r="D4" t="n">
-        <v>3.46588490667352</v>
+        <v>3.0826219059497</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.761630001179137</v>
+        <v>-0.737440580577774</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.590792902164255</v>
+        <v>-0.569846444719948</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.544309488041477</v>
+        <v>-0.527397895304254</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.415863910928044</v>
+        <v>-0.40136762008807</v>
       </c>
       <c r="I4" t="n">
-        <v>0.491266508408708</v>
+        <v>0.496488223025727</v>
       </c>
       <c r="J4" t="n">
-        <v>0.937701263520903</v>
+        <v>0.950263666743879</v>
       </c>
       <c r="K4" t="n">
-        <v>0.75490477563445</v>
+        <v>0.763659554513847</v>
       </c>
       <c r="L4" t="n">
-        <v>0.531223369340578</v>
+        <v>0.539559172300103</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0647826208055956</v>
+        <v>0.0383302007762173</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0725623330954658</v>
+        <v>0.0429318230385733</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0722718772957284</v>
+        <v>0.0427601846042165</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.0045924385522198</v>
+        <v>-0.00271468881751719</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.00504811622144338</v>
+        <v>-0.00298431356917677</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.00462430989228278</v>
+        <v>-0.00273358667423045</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0092003000985001</v>
+        <v>-0.0193503611355292</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.682648379140426</v>
+        <v>-0.641265144174474</v>
       </c>
       <c r="U4" t="n">
-        <v>0.17788375380158</v>
+        <v>0.164040132044936</v>
       </c>
     </row>
     <row r="5">
@@ -5483,64 +5483,64 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.661669176651936</v>
+        <v>-0.741549950605031</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.778906977272622</v>
+        <v>-0.825535044301265</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.761630001179137</v>
+        <v>-0.737440580577774</v>
       </c>
       <c r="E5" t="n">
-        <v>3.19289457971638</v>
+        <v>3.19308925004605</v>
       </c>
       <c r="F5" t="n">
-        <v>1.47957549521031</v>
+        <v>1.47799905748642</v>
       </c>
       <c r="G5" t="n">
-        <v>1.36316292454836</v>
+        <v>1.36790112389504</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04148517982769</v>
+        <v>1.04101897922216</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.290577642802081</v>
+        <v>-0.291194051341464</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.554637896422103</v>
+        <v>-0.557336738574374</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.446516191291831</v>
+        <v>-0.447892032905243</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.314211597620133</v>
+        <v>-0.316455484810911</v>
       </c>
       <c r="M5" t="n">
-        <v>0.388148551061675</v>
+        <v>0.388071693941895</v>
       </c>
       <c r="N5" t="n">
-        <v>0.434761114978339</v>
+        <v>0.434660527552734</v>
       </c>
       <c r="O5" t="n">
-        <v>0.433020833458179</v>
+        <v>0.432922785077674</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.0789779674098425</v>
+        <v>-0.0840087461343374</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.086814435051187</v>
+        <v>-0.092352552307459</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.0795260713481271</v>
+        <v>-0.08459355911064</v>
       </c>
       <c r="S5" t="n">
-        <v>0.118446599998326</v>
+        <v>0.118688290035311</v>
       </c>
       <c r="T5" t="n">
-        <v>1.17653181324292</v>
+        <v>1.17883886825675</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.00692001479145022</v>
+        <v>-0.00681094181914272</v>
       </c>
     </row>
     <row r="6">
@@ -5548,64 +5548,64 @@
         <v>22</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.513253748593981</v>
+        <v>-0.573021900426816</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.604194573357735</v>
+        <v>-0.637920155706955</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.590792902164255</v>
+        <v>-0.569846444719948</v>
       </c>
       <c r="E6" t="n">
-        <v>1.47957549521031</v>
+        <v>1.47799905748642</v>
       </c>
       <c r="F6" t="n">
-        <v>2.61772521028673</v>
+        <v>2.61783592796835</v>
       </c>
       <c r="G6" t="n">
-        <v>1.05739923462813</v>
+        <v>1.05702562716211</v>
       </c>
       <c r="H6" t="n">
-        <v>0.807875281959565</v>
+        <v>0.804432221143778</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.225399746109414</v>
+        <v>-0.225015952811443</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.430230074931648</v>
+        <v>-0.430673829665823</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.346360563670317</v>
+        <v>-0.346102030850369</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.243732496572182</v>
+        <v>-0.244536356800894</v>
       </c>
       <c r="M6" t="n">
-        <v>0.301085052581381</v>
+        <v>0.299876737073481</v>
       </c>
       <c r="N6" t="n">
-        <v>0.337242204835111</v>
+        <v>0.335877578220555</v>
       </c>
       <c r="O6" t="n">
-        <v>0.335892276433805</v>
+        <v>0.334534763087604</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.0612628474467359</v>
+        <v>-0.0649165323564453</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.0673415594898258</v>
+        <v>-0.071364086787828</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.0616880091602786</v>
+        <v>-0.0653684380477635</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0918784849023311</v>
+        <v>0.0917146437120695</v>
       </c>
       <c r="T6" t="n">
-        <v>0.912630336722873</v>
+        <v>0.910930528731524</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.00536782376656782</v>
+        <v>-0.0052630558760301</v>
       </c>
     </row>
     <row r="7">
@@ -5613,64 +5613,64 @@
         <v>24</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.472871092576003</v>
+        <v>-0.530336807483055</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.556656719633971</v>
+        <v>-0.590400713401578</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.544309488041477</v>
+        <v>-0.527397895304254</v>
       </c>
       <c r="E7" t="n">
-        <v>1.36316292454836</v>
+        <v>1.36790112389504</v>
       </c>
       <c r="F7" t="n">
-        <v>1.05739923462813</v>
+        <v>1.05702562716211</v>
       </c>
       <c r="G7" t="n">
-        <v>3.24855309878818</v>
+        <v>3.24864756463189</v>
       </c>
       <c r="H7" t="n">
-        <v>0.744311889181293</v>
+        <v>0.744509094120357</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.207665359485622</v>
+        <v>-0.208254242914437</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.396379697467971</v>
+        <v>-0.398592416313143</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.319109015017808</v>
+        <v>-0.320320472861279</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.224555694461257</v>
+        <v>-0.22632054845151</v>
       </c>
       <c r="M7" t="n">
-        <v>0.277395768004587</v>
+        <v>0.277538557007206</v>
       </c>
       <c r="N7" t="n">
-        <v>0.31070808601005</v>
+        <v>0.310857652047766</v>
       </c>
       <c r="O7" t="n">
-        <v>0.309464369583675</v>
+        <v>0.309614864834715</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.05644270438514</v>
+        <v>-0.0600808215133561</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.0620431451284276</v>
+        <v>-0.0660480898335823</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.0568344144984225</v>
+        <v>-0.0604990642043224</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0846495123689052</v>
+        <v>0.0848827092114201</v>
       </c>
       <c r="T7" t="n">
-        <v>0.84082484663067</v>
+        <v>0.843074214242929</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.00494548495009692</v>
+        <v>-0.0048710044918348</v>
       </c>
     </row>
     <row r="8">
@@ -5678,64 +5678,64 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.361283472443326</v>
+        <v>-0.403604231567478</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.425297455872602</v>
+        <v>-0.449314893643222</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.415863910928044</v>
+        <v>-0.40136762008807</v>
       </c>
       <c r="E8" t="n">
-        <v>1.04148517982769</v>
+        <v>1.04101897922216</v>
       </c>
       <c r="F8" t="n">
-        <v>0.807875281959565</v>
+        <v>0.804432221143778</v>
       </c>
       <c r="G8" t="n">
-        <v>0.744311889181293</v>
+        <v>0.744509094120357</v>
       </c>
       <c r="H8" t="n">
-        <v>2.39438545517045</v>
+        <v>2.39443988857566</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.158660707662307</v>
+        <v>-0.158488516158354</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.302842435825672</v>
+        <v>-0.303342297997732</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.243806007268404</v>
+        <v>-0.243774704075464</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.171565279260216</v>
+        <v>-0.172237585166329</v>
       </c>
       <c r="M8" t="n">
-        <v>0.211936208153119</v>
+        <v>0.211216220429542</v>
       </c>
       <c r="N8" t="n">
-        <v>0.237387520599789</v>
+        <v>0.236573177669962</v>
       </c>
       <c r="O8" t="n">
-        <v>0.236437295059869</v>
+        <v>0.235627374604725</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0431234147202136</v>
+        <v>-0.0457235354150215</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.0474022693821167</v>
+        <v>-0.0502648282518737</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0434226894953896</v>
+        <v>-0.0460418322360498</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0646740099985218</v>
+        <v>0.0645986100554327</v>
       </c>
       <c r="T8" t="n">
-        <v>0.642407888907971</v>
+        <v>0.641607966093783</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.00377845464385212</v>
+        <v>-0.00370699901864069</v>
       </c>
     </row>
     <row r="9">
@@ -5743,64 +5743,64 @@
         <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>0.426789787209298</v>
+        <v>0.499254891793792</v>
       </c>
       <c r="C9" t="n">
-        <v>0.502410501828304</v>
+        <v>0.555798579553995</v>
       </c>
       <c r="D9" t="n">
-        <v>0.491266508408708</v>
+        <v>0.496488223025727</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.290577642802081</v>
+        <v>-0.291194051341464</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.225399746109413</v>
+        <v>-0.225015952811443</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.207665359485622</v>
+        <v>-0.208254242914437</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.158660707662307</v>
+        <v>-0.158488516158354</v>
       </c>
       <c r="I9" t="n">
-        <v>2.75588309213747</v>
+        <v>2.75605067038872</v>
       </c>
       <c r="J9" t="n">
-        <v>1.2263567449508</v>
+        <v>1.22453171750873</v>
       </c>
       <c r="K9" t="n">
-        <v>0.98728944858059</v>
+        <v>0.984069346863534</v>
       </c>
       <c r="L9" t="n">
-        <v>0.694751502861533</v>
+        <v>0.695288416338362</v>
       </c>
       <c r="M9" t="n">
-        <v>0.128391743792721</v>
+        <v>0.128046190004063</v>
       </c>
       <c r="N9" t="n">
-        <v>0.143810243610743</v>
+        <v>0.143418407905363</v>
       </c>
       <c r="O9" t="n">
-        <v>0.14323459344162</v>
+        <v>0.142845031112844</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0292395467242744</v>
+        <v>0.0351286451563289</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0321407958861236</v>
+        <v>0.0386176462400979</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0294424680102841</v>
+        <v>0.0353731874030909</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0188985810542549</v>
+        <v>0.0189501865480873</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.499638380170839</v>
+        <v>-0.498583366219656</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0161056547035595</v>
+        <v>0.0160131590227542</v>
       </c>
     </row>
     <row r="10">
@@ -5808,64 +5808,64 @@
         <v>31</v>
       </c>
       <c r="B10" t="n">
-        <v>0.814631805494524</v>
+        <v>0.955558988337179</v>
       </c>
       <c r="C10" t="n">
-        <v>0.958972277382752</v>
+        <v>1.06378192207522</v>
       </c>
       <c r="D10" t="n">
-        <v>0.937701263520903</v>
+        <v>0.950263666743879</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.554637896422103</v>
+        <v>-0.557336738574374</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.430230074931649</v>
+        <v>-0.430673829665824</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.396379697467971</v>
+        <v>-0.398592416313143</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.302842435825672</v>
+        <v>-0.303342297997732</v>
       </c>
       <c r="I10" t="n">
-        <v>1.2263567449508</v>
+        <v>1.22453171750873</v>
       </c>
       <c r="J10" t="n">
-        <v>3.81155756577128</v>
+        <v>3.81218119522413</v>
       </c>
       <c r="K10" t="n">
-        <v>1.88448133049744</v>
+        <v>1.88347941101584</v>
       </c>
       <c r="L10" t="n">
-        <v>1.32610172058446</v>
+        <v>1.3307613137885</v>
       </c>
       <c r="M10" t="n">
-        <v>0.245066778050999</v>
+        <v>0.245076592722199</v>
       </c>
       <c r="N10" t="n">
-        <v>0.27449672394287</v>
+        <v>0.274498559792942</v>
       </c>
       <c r="O10" t="n">
-        <v>0.273397955999821</v>
+        <v>0.27340113369497</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0558107655189886</v>
+        <v>0.0672351802235357</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0613485030978581</v>
+        <v>0.0739130243482771</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0561980900017889</v>
+        <v>0.067703226798066</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0360725248515901</v>
+        <v>0.0362700924604466</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.953681010959445</v>
+        <v>-0.954273708395388</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0307415476261101</v>
+        <v>0.0306487092813211</v>
       </c>
     </row>
     <row r="11">
@@ -5873,64 +5873,64 @@
         <v>33</v>
       </c>
       <c r="B11" t="n">
-        <v>0.655826609470939</v>
+        <v>0.767915029147328</v>
       </c>
       <c r="C11" t="n">
-        <v>0.772029195288747</v>
+        <v>0.854886130178438</v>
       </c>
       <c r="D11" t="n">
-        <v>0.75490477563445</v>
+        <v>0.763659554513847</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.446516191291831</v>
+        <v>-0.447892032905243</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.346360563670317</v>
+        <v>-0.34610203085037</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.319109015017808</v>
+        <v>-0.320320472861279</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.243806007268404</v>
+        <v>-0.243774704075464</v>
       </c>
       <c r="I11" t="n">
-        <v>0.98728944858059</v>
+        <v>0.984069346863534</v>
       </c>
       <c r="J11" t="n">
-        <v>1.88448133049744</v>
+        <v>1.88347941101584</v>
       </c>
       <c r="K11" t="n">
-        <v>3.76458450520867</v>
+        <v>3.76497503654442</v>
       </c>
       <c r="L11" t="n">
-        <v>1.06759003191207</v>
+        <v>1.06943854386669</v>
       </c>
       <c r="M11" t="n">
-        <v>0.19729319805478</v>
+        <v>0.196950686603963</v>
       </c>
       <c r="N11" t="n">
-        <v>0.220986038797061</v>
+        <v>0.220595036117139</v>
       </c>
       <c r="O11" t="n">
-        <v>0.220101465852788</v>
+        <v>0.219713112547482</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0449309551571909</v>
+        <v>0.0540321487330971</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0493891602456665</v>
+        <v>0.0593986587322502</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0452427741907797</v>
+        <v>0.0544082845900243</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0290405082503664</v>
+        <v>0.0291477024954865</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.767769414004981</v>
+        <v>-0.766882140758428</v>
       </c>
       <c r="U11" t="n">
-        <v>0.024748757430705</v>
+        <v>0.0246301952766404</v>
       </c>
     </row>
     <row r="12">
@@ -5938,64 +5938,64 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>0.461502473465689</v>
+        <v>0.542565852904586</v>
       </c>
       <c r="C12" t="n">
-        <v>0.543273752647681</v>
+        <v>0.604014773446473</v>
       </c>
       <c r="D12" t="n">
-        <v>0.531223369340578</v>
+        <v>0.539559172300103</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.314211597620133</v>
+        <v>-0.316455484810911</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.243732496572182</v>
+        <v>-0.244536356800894</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.224555694461257</v>
+        <v>-0.22632054845151</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.171565279260216</v>
+        <v>-0.172237585166329</v>
       </c>
       <c r="I12" t="n">
-        <v>0.694751502861533</v>
+        <v>0.695288416338362</v>
       </c>
       <c r="J12" t="n">
-        <v>1.32610172058446</v>
+        <v>1.3307613137885</v>
       </c>
       <c r="K12" t="n">
-        <v>1.06759003191207</v>
+        <v>1.06943854386669</v>
       </c>
       <c r="L12" t="n">
-        <v>2.81456568463283</v>
+        <v>2.81477830237411</v>
       </c>
       <c r="M12" t="n">
-        <v>0.138834407731167</v>
+        <v>0.139154350678715</v>
       </c>
       <c r="N12" t="n">
-        <v>0.155506961799707</v>
+        <v>0.15586012693398</v>
       </c>
       <c r="O12" t="n">
-        <v>0.154884491476229</v>
+        <v>0.155237009016495</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0316177273699633</v>
+        <v>0.0381760972879929</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0347549478575685</v>
+        <v>0.0419677734035711</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0318371531346346</v>
+        <v>0.0384418538681816</v>
       </c>
       <c r="S12" t="n">
-        <v>0.020435685583201</v>
+        <v>0.0205941379767405</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.540276162171036</v>
+        <v>-0.541836071680873</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0174155982763289</v>
+        <v>0.0174023197883175</v>
       </c>
     </row>
     <row r="13">
@@ -6003,61 +6003,61 @@
         <v>38</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0562801666208409</v>
+        <v>0.0385437949048251</v>
       </c>
       <c r="C13" t="n">
-        <v>0.066252163482747</v>
+        <v>0.0429091167875237</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0647826208055956</v>
+        <v>0.0383302007762173</v>
       </c>
       <c r="E13" t="n">
-        <v>0.388148551061675</v>
+        <v>0.388071693941895</v>
       </c>
       <c r="F13" t="n">
-        <v>0.301085052581381</v>
+        <v>0.299876737073481</v>
       </c>
       <c r="G13" t="n">
-        <v>0.277395768004587</v>
+        <v>0.277538557007206</v>
       </c>
       <c r="H13" t="n">
-        <v>0.211936208153119</v>
+        <v>0.211216220429542</v>
       </c>
       <c r="I13" t="n">
-        <v>0.128391743792721</v>
+        <v>0.128046190004063</v>
       </c>
       <c r="J13" t="n">
-        <v>0.245066778050999</v>
+        <v>0.245076592722199</v>
       </c>
       <c r="K13" t="n">
-        <v>0.19729319805478</v>
+        <v>0.196950686603963</v>
       </c>
       <c r="L13" t="n">
-        <v>0.138834407731167</v>
+        <v>0.139154350678715</v>
       </c>
       <c r="M13" t="n">
-        <v>2.12471786335528</v>
+        <v>2.12471965263427</v>
       </c>
       <c r="N13" t="n">
-        <v>1.7187617780497</v>
+        <v>1.71878932925803</v>
       </c>
       <c r="O13" t="n">
-        <v>1.71188184040843</v>
+        <v>1.71191772939147</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.108779686579434</v>
+        <v>-0.10868343903338</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.11957318408098</v>
+        <v>-0.119477952595964</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.109534613258038</v>
+        <v>-0.109440020798739</v>
       </c>
       <c r="S13" t="n">
-        <v>0.148954029120655</v>
+        <v>0.148957143252672</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.105625756222282</v>
+        <v>-0.105631319386201</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -6068,61 +6068,61 @@
         <v>40</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0630388234718814</v>
+        <v>0.0431710595973643</v>
       </c>
       <c r="C14" t="n">
-        <v>0.074208352412243</v>
+        <v>0.0480604476720208</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0725623330954659</v>
+        <v>0.0429318230385733</v>
       </c>
       <c r="E14" t="n">
-        <v>0.434761114978339</v>
+        <v>0.434660527552734</v>
       </c>
       <c r="F14" t="n">
-        <v>0.337242204835111</v>
+        <v>0.335877578220555</v>
       </c>
       <c r="G14" t="n">
-        <v>0.31070808601005</v>
+        <v>0.310857652047766</v>
       </c>
       <c r="H14" t="n">
-        <v>0.237387520599789</v>
+        <v>0.236573177669962</v>
       </c>
       <c r="I14" t="n">
-        <v>0.143810243610743</v>
+        <v>0.143418407905363</v>
       </c>
       <c r="J14" t="n">
-        <v>0.27449672394287</v>
+        <v>0.274498559792942</v>
       </c>
       <c r="K14" t="n">
-        <v>0.220986038797061</v>
+        <v>0.220595036117139</v>
       </c>
       <c r="L14" t="n">
-        <v>0.155506961799707</v>
+        <v>0.15586012693398</v>
       </c>
       <c r="M14" t="n">
-        <v>1.7187617780497</v>
+        <v>1.71878932925803</v>
       </c>
       <c r="N14" t="n">
-        <v>2.15808816905108</v>
+        <v>2.15808846746405</v>
       </c>
       <c r="O14" t="n">
-        <v>1.91746086803988</v>
+        <v>1.91743709989729</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.121842984328839</v>
+        <v>-0.121731117429986</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.133932667506717</v>
+        <v>-0.133821535342534</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.122688569771883</v>
+        <v>-0.122578528448108</v>
       </c>
       <c r="S14" t="n">
-        <v>0.166841843422782</v>
+        <v>0.166839765640441</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.118310300064298</v>
+        <v>-0.118312584316886</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -6133,61 +6133,61 @@
         <v>42</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0627864888086348</v>
+        <v>0.0429984647119302</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0739113078516893</v>
+        <v>0.04786830535406</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0722718772957284</v>
+        <v>0.0427601846042165</v>
       </c>
       <c r="E15" t="n">
-        <v>0.433020833458179</v>
+        <v>0.432922785077674</v>
       </c>
       <c r="F15" t="n">
-        <v>0.335892276433805</v>
+        <v>0.334534763087604</v>
       </c>
       <c r="G15" t="n">
-        <v>0.309464369583675</v>
+        <v>0.309614864834715</v>
       </c>
       <c r="H15" t="n">
-        <v>0.236437295059868</v>
+        <v>0.235627374604725</v>
       </c>
       <c r="I15" t="n">
-        <v>0.14323459344162</v>
+        <v>0.142845031112844</v>
       </c>
       <c r="J15" t="n">
-        <v>0.273397955999821</v>
+        <v>0.273401133694969</v>
       </c>
       <c r="K15" t="n">
-        <v>0.220101465852788</v>
+        <v>0.219713112547482</v>
       </c>
       <c r="L15" t="n">
-        <v>0.154884491476229</v>
+        <v>0.155237009016495</v>
       </c>
       <c r="M15" t="n">
-        <v>1.71188184040843</v>
+        <v>1.71191772939147</v>
       </c>
       <c r="N15" t="n">
-        <v>1.91746086803988</v>
+        <v>1.91743709989729</v>
       </c>
       <c r="O15" t="n">
-        <v>2.25104606475246</v>
+        <v>2.25104767044727</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.121355265702026</v>
+        <v>-0.121244444912273</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.13339655574746</v>
+        <v>-0.133286526177217</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.122197466397287</v>
+        <v>-0.122088468040245</v>
       </c>
       <c r="S15" t="n">
-        <v>0.166174001320775</v>
+        <v>0.16617275189315</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.11783672222637</v>
+        <v>-0.117839578856144</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -6198,61 +6198,61 @@
         <v>45</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.00398969976362208</v>
+        <v>-0.00272981635613365</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.00469661440001291</v>
+        <v>-0.00303898485146743</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.0045924385522198</v>
+        <v>-0.00271468881751719</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.0789779674098425</v>
+        <v>-0.0840087461343374</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0612628474467359</v>
+        <v>-0.0649165323564453</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.05644270438514</v>
+        <v>-0.0600808215133561</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0431234147202136</v>
+        <v>-0.0457235354150215</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0292395467242744</v>
+        <v>0.0351286451563289</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0558107655189886</v>
+        <v>0.0672351802235357</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0449309551571909</v>
+        <v>0.0540321487330971</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0316177273699633</v>
+        <v>0.0381760972879929</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.108779686579434</v>
+        <v>-0.10868343903338</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.121842984328839</v>
+        <v>-0.121731117429986</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.121355265702026</v>
+        <v>-0.121244444912273</v>
       </c>
       <c r="P16" t="n">
-        <v>7.04599687326272</v>
+        <v>7.04598908394039</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.99928779257625</v>
+        <v>5.99933926046208</v>
       </c>
       <c r="R16" t="n">
-        <v>5.49562741206646</v>
+        <v>5.49530519378718</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.0105593478209989</v>
+        <v>-0.010549704485979</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.0412651442299257</v>
+        <v>-0.0476849425432193</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -6263,61 +6263,61 @@
         <v>47</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.00438557160132156</v>
+        <v>-0.00300094358528397</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.00516262875789807</v>
+        <v>-0.00334081890721145</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.00504811622144338</v>
+        <v>-0.00298431356917677</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0868144350511869</v>
+        <v>-0.092352552307459</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0673415594898258</v>
+        <v>-0.071364086787828</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0620431451284276</v>
+        <v>-0.0660480898335823</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.0474022693821167</v>
+        <v>-0.0502648282518737</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0321407958861236</v>
+        <v>0.0386176462400979</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0613485030978581</v>
+        <v>0.0739130243482771</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0493891602456665</v>
+        <v>0.0593986587322502</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0347549478575685</v>
+        <v>0.0419677734035711</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.11957318408098</v>
+        <v>-0.119477952595964</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.133932667506717</v>
+        <v>-0.133821535342534</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.13339655574746</v>
+        <v>-0.133286526177217</v>
       </c>
       <c r="P17" t="n">
-        <v>5.99928779257625</v>
+        <v>5.99933926046208</v>
       </c>
       <c r="Q17" t="n">
-        <v>7.93909948786873</v>
+        <v>7.93909486234528</v>
       </c>
       <c r="R17" t="n">
-        <v>6.04092261015708</v>
+        <v>6.04110266737151</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.0116070829074636</v>
+        <v>-0.011597508357185</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.0453596148535509</v>
+        <v>-0.052421043678699</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -6328,61 +6328,61 @@
         <v>49</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.00401738812057442</v>
+        <v>-0.00274881952070222</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.00472920871629725</v>
+        <v>-0.00306014024132509</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.00462430989228278</v>
+        <v>-0.00273358667423045</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0795260713481271</v>
+        <v>-0.08459355911064</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0616880091602786</v>
+        <v>-0.0653684380477635</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0568344144984225</v>
+        <v>-0.0604990642043224</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0434226894953896</v>
+        <v>-0.0460418322360498</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0294424680102841</v>
+        <v>0.0353731874030909</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0561980900017889</v>
+        <v>0.067703226798066</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0452427741907797</v>
+        <v>0.0544082845900243</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0318371531346346</v>
+        <v>0.0384418538681816</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.109534613258038</v>
+        <v>-0.109440020798739</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.122688569771883</v>
+        <v>-0.122578528448108</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.122197466397287</v>
+        <v>-0.122088468040245</v>
       </c>
       <c r="P18" t="n">
-        <v>5.49562741206646</v>
+        <v>5.49530519378718</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.04092261015708</v>
+        <v>6.04110266737151</v>
       </c>
       <c r="R18" t="n">
-        <v>7.1312346330831</v>
+        <v>7.13123321072612</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.0106326292729812</v>
+        <v>-0.0106231445069703</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.0415515226821456</v>
+        <v>-0.0480168933752068</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -6393,61 +6393,61 @@
         <v>53</v>
       </c>
       <c r="B19" t="n">
-        <v>0.00799279831637499</v>
+        <v>-0.0194581905609246</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0094090016525468</v>
+        <v>-0.0216619503428315</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0092003000985001</v>
+        <v>-0.0193503611355292</v>
       </c>
       <c r="E19" t="n">
-        <v>0.118446599998326</v>
+        <v>0.118688290035311</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0918784849023312</v>
+        <v>0.0917146437120695</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0846495123689052</v>
+        <v>0.0848827092114201</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0646740099985218</v>
+        <v>0.0645986100554327</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0188985810542549</v>
+        <v>0.0189501865480873</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0360725248515901</v>
+        <v>0.0362700924604466</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0290405082503664</v>
+        <v>0.0291477024954865</v>
       </c>
       <c r="L19" t="n">
-        <v>0.020435685583201</v>
+        <v>0.0205941379767405</v>
       </c>
       <c r="M19" t="n">
-        <v>0.148954029120655</v>
+        <v>0.148957143252672</v>
       </c>
       <c r="N19" t="n">
-        <v>0.166841843422782</v>
+        <v>0.166839765640441</v>
       </c>
       <c r="O19" t="n">
-        <v>0.166174001320775</v>
+        <v>0.16617275189315</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.0105593478209989</v>
+        <v>-0.010549704485979</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.0116070829074636</v>
+        <v>-0.011597508357185</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.0106326292729812</v>
+        <v>-0.0106231445069703</v>
       </c>
       <c r="S19" t="n">
-        <v>2.03326790191907</v>
+        <v>2.03326685211317</v>
       </c>
       <c r="T19" t="n">
-        <v>0.0339216247283531</v>
+        <v>0.0334450753361077</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -6458,64 +6458,64 @@
         <v>65</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.593053569672062</v>
+        <v>-0.644838578878773</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.698133719408543</v>
+        <v>-0.717870514788005</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.682648379140425</v>
+        <v>-0.641265144174474</v>
       </c>
       <c r="E20" t="n">
-        <v>1.17653181324292</v>
+        <v>1.17883886825675</v>
       </c>
       <c r="F20" t="n">
-        <v>0.912630336722873</v>
+        <v>0.910930528731524</v>
       </c>
       <c r="G20" t="n">
-        <v>0.84082484663067</v>
+        <v>0.843074214242929</v>
       </c>
       <c r="H20" t="n">
-        <v>0.642407888907971</v>
+        <v>0.641607966093783</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.499638380170839</v>
+        <v>-0.498583366219656</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.953681010959444</v>
+        <v>-0.954273708395388</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.767769414004981</v>
+        <v>-0.766882140758428</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.540276162171036</v>
+        <v>-0.541836071680873</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.105625756222282</v>
+        <v>-0.105631319386201</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.118310300064298</v>
+        <v>-0.118312584316886</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.11783672222637</v>
+        <v>-0.117839578856144</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.0412651442299257</v>
+        <v>-0.0476849425432193</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.0453596148535509</v>
+        <v>-0.052421043678699</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.0415515226821456</v>
+        <v>-0.0480168933752068</v>
       </c>
       <c r="S20" t="n">
-        <v>0.0339216247283531</v>
+        <v>0.0334450753361077</v>
       </c>
       <c r="T20" t="n">
-        <v>3.00801327148383</v>
+        <v>3.00814214067142</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.0571405173221061</v>
+        <v>-0.0570425252281823</v>
       </c>
     </row>
     <row r="21">
@@ -6523,37 +6523,37 @@
         <v>56</v>
       </c>
       <c r="B21" t="n">
-        <v>0.154537238206776</v>
+        <v>0.164954241763938</v>
       </c>
       <c r="C21" t="n">
-        <v>0.181918906509708</v>
+        <v>0.183636324392131</v>
       </c>
       <c r="D21" t="n">
-        <v>0.17788375380158</v>
+        <v>0.164040132044936</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.00692001479145022</v>
+        <v>-0.00681094181914272</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.00536782376656782</v>
+        <v>-0.0052630558760301</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.00494548495009692</v>
+        <v>-0.0048710044918348</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.00377845464385212</v>
+        <v>-0.00370699901864069</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0161056547035595</v>
+        <v>0.0160131590227542</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0307415476261101</v>
+        <v>0.0306487092813211</v>
       </c>
       <c r="K21" t="n">
-        <v>0.024748757430705</v>
+        <v>0.0246301952766404</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0174155982763289</v>
+        <v>0.0174023197883175</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.0571405173221061</v>
+        <v>-0.0570425252281823</v>
       </c>
       <c r="U21" t="n">
         <v>0.25</v>
@@ -6673,64 +6673,64 @@
         <v>123</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.00052771462227863</v>
+        <v>-0.0000199809316279165</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0383835336889669</v>
+        <v>-0.0171009774223956</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0132056144596118</v>
+        <v>0.029397519226531</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0366823064443103</v>
+        <v>-0.161893556274979</v>
       </c>
       <c r="G2" t="n">
-        <v>0.120813007723564</v>
+        <v>0.155529515706393</v>
       </c>
       <c r="H2" t="n">
-        <v>0.337818048214812</v>
+        <v>0.180130232083034</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0744500282361909</v>
+        <v>0.153236597381</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.392827390934658</v>
+        <v>-0.219082628917843</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.106892230549669</v>
+        <v>0.144411250800105</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.123676124543941</v>
+        <v>-0.21342639079433</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.149757436527206</v>
+        <v>0.0496665619268282</v>
       </c>
       <c r="N2" t="n">
-        <v>0.069984670044542</v>
+        <v>0.041171551196502</v>
       </c>
       <c r="O2" t="n">
-        <v>0.106991987774224</v>
+        <v>0.018740288044525</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0731418750441713</v>
+        <v>-0.0426745965000329</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.342796551774403</v>
+        <v>-0.203649698557342</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.201993943312155</v>
+        <v>-0.0169480537750857</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.360828672703461</v>
+        <v>-0.132384609210371</v>
       </c>
       <c r="T2" t="n">
-        <v>0.15595454246301</v>
+        <v>-0.0544012681415019</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0440094185569053</v>
+        <v>0.00817494665301033</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.0376733328813318</v>
+        <v>0.0288327404845827</v>
       </c>
     </row>
     <row r="3">
@@ -6741,64 +6741,64 @@
         <v>123</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0383835336889669</v>
+        <v>-0.0171009774223956</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.000728967887100307</v>
+        <v>-0.0000220616451933608</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0178448893134306</v>
+        <v>0.000684231139402858</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.124536529607388</v>
+        <v>-0.262986015885703</v>
       </c>
       <c r="G3" t="n">
-        <v>0.186702188637311</v>
+        <v>-0.0118119965286101</v>
       </c>
       <c r="H3" t="n">
-        <v>0.20645014423395</v>
+        <v>0.116546506616101</v>
       </c>
       <c r="I3" t="n">
-        <v>0.174929821686124</v>
+        <v>-0.0199001198366975</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.222238238952355</v>
+        <v>-0.231457695131181</v>
       </c>
       <c r="K3" t="n">
-        <v>0.140997961754532</v>
+        <v>0.138548178411457</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.217540556935748</v>
+        <v>-0.0823904192439471</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0489586621837335</v>
+        <v>0.0147923411503544</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0134631826185801</v>
+        <v>0.000568002360965575</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.0122970047703537</v>
+        <v>0.0317249239886352</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.073587439639792</v>
+        <v>-0.108554205707689</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.201682900513463</v>
+        <v>-0.361807075972568</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0147863686024716</v>
+        <v>-0.131792609823862</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.130404220014776</v>
+        <v>-0.302430920208757</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.0832684603549733</v>
+        <v>-0.0095344363383072</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0614700871827799</v>
+        <v>-0.0598946194860046</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0118680757388131</v>
+        <v>0.00127491821141945</v>
       </c>
     </row>
     <row r="4">
@@ -6809,64 +6809,64 @@
         <v>123</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0132056144596118</v>
+        <v>0.029397519226531</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0178448893134306</v>
+        <v>0.000684231139402858</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.000696362855025168</v>
+        <v>-0.0000180055260496914</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.326891059007831</v>
+        <v>-0.0220478827113268</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0589392500713106</v>
+        <v>0.298935062065279</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0704552812560004</v>
+        <v>0.254429511844291</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0533511025518753</v>
+        <v>0.249946101233688</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.166925623985894</v>
+        <v>-0.281597287834382</v>
       </c>
       <c r="K4" t="n">
-        <v>0.264628836965775</v>
+        <v>0.102264255947904</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0175909353000412</v>
+        <v>-0.116579620337872</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0875837452562501</v>
+        <v>0.0459682952255438</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.0213055016571064</v>
+        <v>0.0569833386656789</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00722303856519016</v>
+        <v>0.0267348552990198</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.132957777649358</v>
+        <v>-0.0522574010882331</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.360253622271816</v>
+        <v>-0.106029773621333</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.13008531250963</v>
+        <v>-0.208142799602279</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.3008667505578</v>
+        <v>-0.306492653684566</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.0403966867796388</v>
+        <v>-0.00627899357894168</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.0951167551335836</v>
+        <v>0.112931052230914</v>
       </c>
       <c r="V4" t="n">
-        <v>0.00702748880197057</v>
+        <v>-0.0205490077845807</v>
       </c>
     </row>
     <row r="5">
@@ -6877,64 +6877,64 @@
         <v>123</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0366823064443103</v>
+        <v>-0.161893556274979</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.124536529607388</v>
+        <v>-0.262986015885703</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.326891059007831</v>
+        <v>-0.0220478827113267</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.000805717281599172</v>
+        <v>-0.00100038761126298</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0592120625573929</v>
+        <v>-0.0576356248335002</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0752966033411218</v>
+        <v>-0.0800348026877962</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0286792556653674</v>
+        <v>-0.0282130550598385</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.262641782288077</v>
+        <v>-0.262025373748694</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.66952267218544</v>
+        <v>-0.666823830033169</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0602325219885171</v>
+        <v>-0.0588566803751043</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0923268596907884</v>
+        <v>0.0945707468815664</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.209031923492612</v>
+        <v>-0.208955066372832</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.16357838328127</v>
+        <v>-0.163477795855665</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.122063584062149</v>
+        <v>-0.121965535681644</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0499886289048386</v>
+        <v>0.0550194076293335</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.0599910424392207</v>
+        <v>-0.0544529251829487</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.184386639927583</v>
+        <v>-0.17931915216507</v>
       </c>
       <c r="T5" t="n">
-        <v>0.108663795295956</v>
+        <v>0.108422105258971</v>
       </c>
       <c r="U5" t="n">
-        <v>0.187714886802598</v>
+        <v>0.185407831788773</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.00343501479434859</v>
+        <v>-0.00354408776665608</v>
       </c>
     </row>
     <row r="6">
@@ -6945,64 +6945,64 @@
         <v>123</v>
       </c>
       <c r="C6" t="n">
-        <v>0.120813007723563</v>
+        <v>0.155529515706393</v>
       </c>
       <c r="D6" t="n">
-        <v>0.186702188637312</v>
+        <v>-0.0118119965286101</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0589392500713106</v>
+        <v>0.298935062065279</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0592120625573929</v>
+        <v>-0.0576356248335002</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.000484917579881117</v>
+        <v>-0.000595635261499528</v>
       </c>
       <c r="H6" t="n">
-        <v>0.152379834732184</v>
+        <v>0.152753442198207</v>
       </c>
       <c r="I6" t="n">
-        <v>0.116006935049644</v>
+        <v>0.119449995865431</v>
       </c>
       <c r="J6" t="n">
-        <v>0.328792484458911</v>
+        <v>0.32840869116094</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.04107695213323</v>
+        <v>-0.040633197399055</v>
       </c>
       <c r="L6" t="n">
-        <v>0.164451666923004</v>
+        <v>0.164193134103057</v>
       </c>
       <c r="M6" t="n">
-        <v>0.469284823171391</v>
+        <v>0.470088683400103</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0874167505767723</v>
+        <v>0.0886250660846715</v>
       </c>
       <c r="O6" t="n">
-        <v>0.114772780634585</v>
+        <v>0.116137407249142</v>
       </c>
       <c r="P6" t="n">
-        <v>0.188616669331399</v>
+        <v>0.1899741826776</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.307046966934373</v>
+        <v>0.310700651844082</v>
       </c>
       <c r="R6" t="n">
-        <v>0.195194246430618</v>
+        <v>0.19921677372862</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0323341441119621</v>
+        <v>0.036014572999447</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.0650586956792649</v>
+        <v>-0.0648948544890032</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.151592557933615</v>
+        <v>-0.149892749942266</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.000549335996745808</v>
+        <v>-0.000654103887283528</v>
       </c>
     </row>
     <row r="7">
@@ -7013,64 +7013,64 @@
         <v>123</v>
       </c>
       <c r="C7" t="n">
-        <v>0.337818048214812</v>
+        <v>0.180130232083034</v>
       </c>
       <c r="D7" t="n">
-        <v>0.20645014423395</v>
+        <v>0.116546506616101</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0704552812560005</v>
+        <v>0.254429511844291</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0752966033411218</v>
+        <v>-0.0800348026877964</v>
       </c>
       <c r="G7" t="n">
-        <v>0.152379834732184</v>
+        <v>0.152753442198207</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.00040877611039658</v>
+        <v>-0.000503241954110223</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0591001061970232</v>
+        <v>0.0589029012579594</v>
       </c>
       <c r="J7" t="n">
-        <v>0.522080120873528</v>
+        <v>0.522669004302343</v>
       </c>
       <c r="K7" t="n">
-        <v>0.299858217127647</v>
+        <v>0.302070935972819</v>
       </c>
       <c r="L7" t="n">
-        <v>0.418326479392305</v>
+        <v>0.419537937235776</v>
       </c>
       <c r="M7" t="n">
-        <v>0.547242225044921</v>
+        <v>0.549007079035173</v>
       </c>
       <c r="N7" t="n">
-        <v>0.15293755365782</v>
+        <v>0.152794764655201</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0596308376971032</v>
+        <v>0.0594812716593866</v>
       </c>
       <c r="P7" t="n">
-        <v>0.239002070667016</v>
+        <v>0.238851575415976</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0213622298936074</v>
+        <v>0.0250003470218235</v>
       </c>
       <c r="R7" t="n">
-        <v>0.142005030920884</v>
+        <v>0.146009975626039</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0240693931354475</v>
+        <v>0.0277340428413474</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.266435864387392</v>
+        <v>-0.266669061229907</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.0696596213234335</v>
+        <v>-0.0719089889356923</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0241762541808661</v>
+        <v>0.024101773722604</v>
       </c>
     </row>
     <row r="8">
@@ -7081,64 +7081,64 @@
         <v>123</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0744500282361909</v>
+        <v>0.153236597381</v>
       </c>
       <c r="D8" t="n">
-        <v>0.174929821686124</v>
+        <v>-0.0199001198366975</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0533511025518753</v>
+        <v>0.249946101233688</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0286792556653674</v>
+        <v>-0.0282130550598385</v>
       </c>
       <c r="G8" t="n">
-        <v>0.116006935049644</v>
+        <v>0.119449995865431</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0591001061970232</v>
+        <v>0.0589029012579594</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.000237841291373719</v>
+        <v>-0.000292274696590322</v>
       </c>
       <c r="J8" t="n">
-        <v>0.272469747962017</v>
+        <v>0.272297556458064</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0468727568928619</v>
+        <v>0.0473726190649214</v>
       </c>
       <c r="L8" t="n">
-        <v>0.222054317901786</v>
+        <v>0.222023014708845</v>
       </c>
       <c r="M8" t="n">
-        <v>0.292473160636919</v>
+        <v>0.293145466543032</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0562179181029648</v>
+        <v>0.0569379058265424</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0416380737421465</v>
+        <v>0.0424524166719728</v>
       </c>
       <c r="P8" t="n">
-        <v>0.00421429276968929</v>
+        <v>0.00502421322483282</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.00171386804775978</v>
+        <v>0.0008862526470481</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0819250773076014</v>
+        <v>0.0847876361773584</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.252978255725356</v>
+        <v>-0.250359112984695</v>
       </c>
       <c r="T8" t="n">
-        <v>0.058553468030959</v>
+        <v>0.0586288679740481</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.151852586222491</v>
+        <v>-0.151052663408303</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.0391209536401715</v>
+        <v>-0.039192409265383</v>
       </c>
     </row>
     <row r="9">
@@ -7149,64 +7149,64 @@
         <v>123</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.392827390934658</v>
+        <v>-0.219082628917843</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.222238238952355</v>
+        <v>-0.231457695131181</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.166925623985894</v>
+        <v>-0.281597287834382</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.262641782288077</v>
+        <v>-0.262025373748694</v>
       </c>
       <c r="G9" t="n">
-        <v>0.328792484458911</v>
+        <v>0.32840869116094</v>
       </c>
       <c r="H9" t="n">
-        <v>0.522080120873528</v>
+        <v>0.522669004302343</v>
       </c>
       <c r="I9" t="n">
-        <v>0.272469747962017</v>
+        <v>0.272297556458064</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.000622421992864997</v>
+        <v>-0.000790000244120126</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.00670407172506993</v>
+        <v>-0.00487904428300778</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0974589845975207</v>
+        <v>0.100679086314577</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0576731321302382</v>
+        <v>0.0571362186534096</v>
       </c>
       <c r="N9" t="n">
-        <v>0.192535394612797</v>
+        <v>0.192880948401455</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0758774423946486</v>
+        <v>0.0762692781000294</v>
       </c>
       <c r="P9" t="n">
-        <v>0.085118755530755</v>
+        <v>0.085508317859531</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.271934583016513</v>
+        <v>0.266045484584459</v>
       </c>
       <c r="R9" t="n">
-        <v>0.353668027292916</v>
+        <v>0.347191176938942</v>
       </c>
       <c r="S9" t="n">
-        <v>0.140195070993227</v>
+        <v>0.13426435160042</v>
       </c>
       <c r="T9" t="n">
-        <v>0.165828844456056</v>
+        <v>0.165777238962224</v>
       </c>
       <c r="U9" t="n">
-        <v>0.187394411122136</v>
+        <v>0.186339397170953</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.069360092573382</v>
+        <v>-0.0692675968925767</v>
       </c>
     </row>
     <row r="10">
@@ -7217,64 +7217,64 @@
         <v>123</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.106892230549669</v>
+        <v>0.144411250800105</v>
       </c>
       <c r="D10" t="n">
-        <v>0.140997961754532</v>
+        <v>0.138548178411457</v>
       </c>
       <c r="E10" t="n">
-        <v>0.264628836965775</v>
+        <v>0.102264255947904</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.66952267218544</v>
+        <v>-0.666823830033169</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0410769521332299</v>
+        <v>-0.040633197399055</v>
       </c>
       <c r="H10" t="n">
-        <v>0.299858217127647</v>
+        <v>0.302070935972819</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0468727568928619</v>
+        <v>0.0473726190649214</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.00670407172506993</v>
+        <v>-0.00487904428300756</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.00226342340932195</v>
+        <v>-0.00288705286217139</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0457589468274047</v>
+        <v>-0.0447570273458004</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0529932860058335</v>
+        <v>-0.0576528792098823</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.0117853803408355</v>
+        <v>-0.0117951950120353</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.122795102851172</v>
+        <v>-0.122796938701244</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.23235422503802</v>
+        <v>-0.232357402733168</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.174852650000457</v>
+        <v>0.163428235295909</v>
       </c>
       <c r="R10" t="n">
-        <v>0.226353941726455</v>
+        <v>0.213789420476036</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.12991397558997</v>
+        <v>-0.141419112386247</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.00309048640755812</v>
+        <v>-0.00328805401641459</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.122900691361904</v>
+        <v>-0.12230799392596</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0594951387644224</v>
+        <v>0.0595879771092114</v>
       </c>
     </row>
     <row r="11">
@@ -7285,64 +7285,64 @@
         <v>123</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.123676124543941</v>
+        <v>-0.21342639079433</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.217540556935748</v>
+        <v>-0.0823904192439472</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0175909353000412</v>
+        <v>-0.116579620337872</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.060232521988517</v>
+        <v>-0.0588566803751043</v>
       </c>
       <c r="G11" t="n">
-        <v>0.164451666923004</v>
+        <v>0.164193134103057</v>
       </c>
       <c r="H11" t="n">
-        <v>0.418326479392305</v>
+        <v>0.419537937235776</v>
       </c>
       <c r="I11" t="n">
-        <v>0.222054317901786</v>
+        <v>0.222023014708845</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0974589845975206</v>
+        <v>0.100679086314577</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0457589468274049</v>
+        <v>-0.0447570273458004</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.00147221922427221</v>
+        <v>-0.00186275056002083</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0845142361457749</v>
+        <v>0.0826657241911566</v>
       </c>
       <c r="N11" t="n">
-        <v>0.20583519380825</v>
+        <v>0.206177705259067</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0858397025985477</v>
+        <v>0.0862307052784702</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0236710187395921</v>
+        <v>-0.0232826654342863</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.592918248625816</v>
+        <v>-0.602019442201722</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.171887067247995</v>
+        <v>-0.181896565734578</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.456535151825776</v>
+        <v>-0.465700662225021</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.034660059386531</v>
+        <v>-0.0347672536316511</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0193624954797206</v>
+        <v>0.0184752222331669</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.0232694674898766</v>
+        <v>-0.023150905335812</v>
       </c>
     </row>
     <row r="12">
@@ -7353,64 +7353,64 @@
         <v>123</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.149757436527206</v>
+        <v>0.0496665619268282</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0489586621837335</v>
+        <v>0.0147923411503544</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08758374525625</v>
+        <v>0.0459682952255438</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0923268596907884</v>
+        <v>0.0945707468815664</v>
       </c>
       <c r="G12" t="n">
-        <v>0.469284823171391</v>
+        <v>0.470088683400103</v>
       </c>
       <c r="H12" t="n">
-        <v>0.547242225044921</v>
+        <v>0.549007079035173</v>
       </c>
       <c r="I12" t="n">
-        <v>0.292473160636919</v>
+        <v>0.293145466543032</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0576731321302381</v>
+        <v>0.0571362186534096</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0529932860058335</v>
+        <v>-0.0576528792098823</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0845142361457749</v>
+        <v>0.0826657241911566</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.000719880914470838</v>
+        <v>-0.000932498655752845</v>
       </c>
       <c r="N12" t="n">
-        <v>0.197314536633525</v>
+        <v>0.196994593685977</v>
       </c>
       <c r="O12" t="n">
-        <v>0.190095433074423</v>
+        <v>0.18974226794015</v>
       </c>
       <c r="P12" t="n">
-        <v>0.093032248133729</v>
+        <v>0.0926797305934623</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.298372792672941</v>
+        <v>-0.30493116259097</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.0945341415236122</v>
+        <v>-0.101746967069615</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.470958527110692</v>
+        <v>-0.477563227844239</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.0925970244718953</v>
+        <v>-0.0927554768654349</v>
       </c>
       <c r="U12" t="n">
-        <v>0.111623453932529</v>
+        <v>0.113183363442366</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.0573564266786957</v>
+        <v>-0.0573431481906843</v>
       </c>
     </row>
     <row r="13">
@@ -7421,61 +7421,61 @@
         <v>123</v>
       </c>
       <c r="C13" t="n">
-        <v>0.069984670044542</v>
+        <v>0.041171551196502</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0134631826185801</v>
+        <v>0.000568002360965575</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.0213055016571064</v>
+        <v>0.0569833386656789</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.209031923492612</v>
+        <v>-0.208955066372832</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0874167505767723</v>
+        <v>0.0886250660846715</v>
       </c>
       <c r="H13" t="n">
-        <v>0.15293755365782</v>
+        <v>0.152794764655201</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0562179181029648</v>
+        <v>0.0569379058265424</v>
       </c>
       <c r="J13" t="n">
-        <v>0.192535394612797</v>
+        <v>0.192880948401455</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0117853803408355</v>
+        <v>-0.0117951950120353</v>
       </c>
       <c r="L13" t="n">
-        <v>0.20583519380825</v>
+        <v>0.206177705259067</v>
       </c>
       <c r="M13" t="n">
-        <v>0.197314536633525</v>
+        <v>0.196994593685977</v>
       </c>
       <c r="N13" t="n">
-        <v>0.00000641100486831192</v>
+        <v>0.00000462172587134546</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.000150735018993764</v>
+        <v>-0.000178286227329183</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.00288180539565275</v>
+        <v>-0.00291769437869083</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.117265615813928</v>
+        <v>-0.117361863359982</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.0343587407165413</v>
+        <v>-0.0344539722015574</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0714341311382768</v>
+        <v>0.0713395386789782</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0330949187453165</v>
+        <v>0.0330918046132987</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.0774648218387109</v>
+        <v>-0.0774592586747918</v>
       </c>
       <c r="V13" t="n">
         <v>-0.022189349112426</v>
@@ -7489,61 +7489,61 @@
         <v>123</v>
       </c>
       <c r="C14" t="n">
-        <v>0.106991987774224</v>
+        <v>0.018740288044525</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0122970047703537</v>
+        <v>0.0317249239886352</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00722303856519015</v>
+        <v>0.0267348552990198</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.16357838328127</v>
+        <v>-0.163477795855665</v>
       </c>
       <c r="G14" t="n">
-        <v>0.114772780634585</v>
+        <v>0.116137407249142</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0596308376971032</v>
+        <v>0.0594812716593867</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0416380737421465</v>
+        <v>0.0424524166719728</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0758774423946486</v>
+        <v>0.0762692781000294</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.122795102851172</v>
+        <v>-0.122796938701244</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0858397025985477</v>
+        <v>0.0862307052784702</v>
       </c>
       <c r="M14" t="n">
-        <v>0.190095433074423</v>
+        <v>0.18974226794015</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.000150735018993764</v>
+        <v>-0.000178286227329183</v>
       </c>
       <c r="O14" t="n">
-        <v>0.00000328432940222001</v>
+        <v>0.00000298591643410617</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0011081596552236</v>
+        <v>0.0011319277978159</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.0994810829793976</v>
+        <v>-0.0995929498782503</v>
       </c>
       <c r="R14" t="n">
-        <v>0.122970456240433</v>
+        <v>0.12285932407625</v>
       </c>
       <c r="S14" t="n">
-        <v>0.151328660979138</v>
+        <v>0.151218619655363</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.007341125660799</v>
+        <v>-0.00733904787845788</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0110048835872842</v>
+        <v>0.0110071678398722</v>
       </c>
       <c r="V14" t="n">
         <v>-0.0162721893491124</v>
@@ -7557,61 +7557,61 @@
         <v>123</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0731418750441713</v>
+        <v>-0.0426745965000329</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.073587439639792</v>
+        <v>-0.108554205707689</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.132957777649358</v>
+        <v>-0.0522574010882331</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.122063584062149</v>
+        <v>-0.121965535681644</v>
       </c>
       <c r="G15" t="n">
-        <v>0.188616669331399</v>
+        <v>0.1899741826776</v>
       </c>
       <c r="H15" t="n">
-        <v>0.239002070667016</v>
+        <v>0.238851575415976</v>
       </c>
       <c r="I15" t="n">
-        <v>0.00421429276968935</v>
+        <v>0.00502421322483287</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0851187555307551</v>
+        <v>0.0855083178595311</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.23235422503802</v>
+        <v>-0.232357402733168</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0236710187395921</v>
+        <v>-0.0232826654342863</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0930322481337291</v>
+        <v>0.0926797305934623</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.00288180539565275</v>
+        <v>-0.00291769437869083</v>
       </c>
       <c r="O15" t="n">
-        <v>0.00110815965522382</v>
+        <v>0.0011319277978159</v>
       </c>
       <c r="P15" t="n">
-        <v>0.00000431863747829553</v>
+        <v>0.00000271294266207533</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.154149783285825</v>
+        <v>-0.154260604075578</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.0362709720125989</v>
+        <v>-0.0363810015828417</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.0328774495565037</v>
+        <v>-0.032986447913546</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.0054303298806993</v>
+        <v>-0.00542908045307447</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0321516971922329</v>
+        <v>0.0321545538220065</v>
       </c>
       <c r="V15" t="n">
         <v>-0.00147928994082838</v>
@@ -7625,61 +7625,61 @@
         <v>123</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.342796551774403</v>
+        <v>-0.203649698557342</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.201682900513463</v>
+        <v>-0.361807075972568</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.360253622271816</v>
+        <v>-0.106029773621333</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0499886289048386</v>
+        <v>0.0550194076293335</v>
       </c>
       <c r="G16" t="n">
-        <v>0.307046966934373</v>
+        <v>0.310700651844082</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0213622298936074</v>
+        <v>0.0250003470218235</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.00171386804775978</v>
+        <v>0.0008862526470481</v>
       </c>
       <c r="J16" t="n">
-        <v>0.271934583016513</v>
+        <v>0.266045484584459</v>
       </c>
       <c r="K16" t="n">
-        <v>0.174852650000457</v>
+        <v>0.163428235295909</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.592918248625816</v>
+        <v>-0.602019442201722</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.298372792672941</v>
+        <v>-0.30493116259097</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.117265615813928</v>
+        <v>-0.117361863359982</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.0994810829793976</v>
+        <v>-0.0995929498782503</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.154149783285825</v>
+        <v>-0.154260604075578</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.00000359780533187859</v>
+        <v>0.00000419151699126985</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.0011650649537307</v>
+        <v>-0.00121653283956125</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.0000678495254859968</v>
+        <v>0.000254368753795475</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.177500817808095</v>
+        <v>-0.177510461143115</v>
       </c>
       <c r="U16" t="n">
-        <v>0.393165799507564</v>
+        <v>0.399585597820857</v>
       </c>
       <c r="V16" t="n">
         <v>0.12005006827492</v>
@@ -7693,61 +7693,61 @@
         <v>123</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.201993943312155</v>
+        <v>-0.0169480537750857</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0147863686024716</v>
+        <v>-0.131792609823862</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.13008531250963</v>
+        <v>-0.208142799602279</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0599910424392207</v>
+        <v>-0.0544529251829487</v>
       </c>
       <c r="G17" t="n">
-        <v>0.195194246430618</v>
+        <v>0.19921677372862</v>
       </c>
       <c r="H17" t="n">
-        <v>0.142005030920884</v>
+        <v>0.146009975626039</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0819250773076014</v>
+        <v>0.0847876361773584</v>
       </c>
       <c r="J17" t="n">
-        <v>0.353668027292916</v>
+        <v>0.347191176938942</v>
       </c>
       <c r="K17" t="n">
-        <v>0.226353941726455</v>
+        <v>0.213789420476036</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.171887067247995</v>
+        <v>-0.181896565734578</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0945341415236122</v>
+        <v>-0.101746967069615</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.0343587407165413</v>
+        <v>-0.0344539722015574</v>
       </c>
       <c r="O17" t="n">
-        <v>0.122970456240433</v>
+        <v>0.12285932407625</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.0362709720125989</v>
+        <v>-0.0363810015828417</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.0011650649537307</v>
+        <v>-0.00121653283956125</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.00000151714267992986</v>
+        <v>0.00000310838076966746</v>
       </c>
       <c r="S17" t="n">
-        <v>0.00120802237305728</v>
+        <v>0.00102796515863179</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.351973183061213</v>
+        <v>-0.351982757611492</v>
       </c>
       <c r="U17" t="n">
-        <v>0.137975823615903</v>
+        <v>0.145037252441051</v>
       </c>
       <c r="V17" t="n">
         <v>0.12608977276706</v>
@@ -7761,61 +7761,61 @@
         <v>123</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.360828672703461</v>
+        <v>-0.132384609210371</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.130404220014776</v>
+        <v>-0.302430920208757</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.3008667505578</v>
+        <v>-0.306492653684566</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.184386639927583</v>
+        <v>-0.17931915216507</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0323341441119621</v>
+        <v>0.036014572999447</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0240693931354475</v>
+        <v>0.0277340428413474</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.252978255725356</v>
+        <v>-0.250359112984695</v>
       </c>
       <c r="J18" t="n">
-        <v>0.140195070993227</v>
+        <v>0.13426435160042</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.12991397558997</v>
+        <v>-0.141419112386247</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.456535151825776</v>
+        <v>-0.465700662225021</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.470958527110692</v>
+        <v>-0.477563227844239</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0714341311382768</v>
+        <v>0.0713395386789782</v>
       </c>
       <c r="O18" t="n">
-        <v>0.151328660979138</v>
+        <v>0.151218619655363</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.0328774495565037</v>
+        <v>-0.032986447913546</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.0000678495254859968</v>
+        <v>0.000254368753795475</v>
       </c>
       <c r="R18" t="n">
-        <v>0.00120802237305728</v>
+        <v>0.00102796515863179</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.000000329600243986761</v>
+        <v>0.00000109275673132458</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.301763821467043</v>
+        <v>-0.301773306233054</v>
       </c>
       <c r="U18" t="n">
-        <v>0.00931956571015854</v>
+        <v>0.0157849364032197</v>
       </c>
       <c r="V18" t="n">
         <v>0.0523265992087111</v>
@@ -7829,61 +7829,61 @@
         <v>123</v>
       </c>
       <c r="C19" t="n">
-        <v>0.15595454246301</v>
+        <v>-0.0544012681415019</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0832684603549733</v>
+        <v>-0.00953443633830721</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0403966867796388</v>
+        <v>-0.00627899357894168</v>
       </c>
       <c r="F19" t="n">
-        <v>0.108663795295956</v>
+        <v>0.108422105258971</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0650586956792649</v>
+        <v>-0.0648948544890032</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.266435864387392</v>
+        <v>-0.266669061229907</v>
       </c>
       <c r="I19" t="n">
-        <v>0.058553468030959</v>
+        <v>0.0586288679740481</v>
       </c>
       <c r="J19" t="n">
-        <v>0.165828844456056</v>
+        <v>0.165777238962224</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.00309048640755812</v>
+        <v>-0.00328805401641459</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.034660059386531</v>
+        <v>-0.0347672536316511</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.0925970244718953</v>
+        <v>-0.0927554768654349</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0330949187453165</v>
+        <v>0.0330918046132987</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.007341125660799</v>
+        <v>-0.00733904787845788</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.0054303298806993</v>
+        <v>-0.00542908045307447</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.177500817808095</v>
+        <v>-0.177510461143115</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.351973183061213</v>
+        <v>-0.351982757611492</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.301763821467043</v>
+        <v>-0.301773306233054</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.00000576123772333403</v>
+        <v>-0.00000471143183000677</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0807802414528031</v>
+        <v>0.0812567908450485</v>
       </c>
       <c r="V19" t="n">
         <v>-0.0236686390532544</v>
@@ -7897,64 +7897,64 @@
         <v>123</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0440094185569054</v>
+        <v>0.00817494665301033</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0614700871827799</v>
+        <v>-0.0598946194860045</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.0951167551335838</v>
+        <v>0.112931052230914</v>
       </c>
       <c r="F20" t="n">
-        <v>0.187714886802598</v>
+        <v>0.185407831788773</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.151592557933615</v>
+        <v>-0.149892749942266</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0696596213234336</v>
+        <v>-0.0719089889356924</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.151852586222491</v>
+        <v>-0.151052663408303</v>
       </c>
       <c r="J20" t="n">
-        <v>0.187394411122136</v>
+        <v>0.186339397170953</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.122900691361904</v>
+        <v>-0.12230799392596</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0193624954797205</v>
+        <v>0.018475222233167</v>
       </c>
       <c r="M20" t="n">
-        <v>0.111623453932529</v>
+        <v>0.113183363442366</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.0774648218387109</v>
+        <v>-0.0774592586747918</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0110048835872842</v>
+        <v>0.0110071678398722</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0321516971922329</v>
+        <v>0.0321545538220065</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.393165799507564</v>
+        <v>0.399585597820857</v>
       </c>
       <c r="R20" t="n">
-        <v>0.137975823615903</v>
+        <v>0.145037252441051</v>
       </c>
       <c r="S20" t="n">
-        <v>0.00931956571015854</v>
+        <v>0.0157849364032197</v>
       </c>
       <c r="T20" t="n">
-        <v>0.0807802414528031</v>
+        <v>0.0812567908450485</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.00061682177968736</v>
+        <v>-0.000745690967276946</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.00055179037020154</v>
+        <v>-0.000649782464125295</v>
       </c>
     </row>
     <row r="21">
@@ -7965,37 +7965,37 @@
         <v>123</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0376733328813318</v>
+        <v>0.0288327404845827</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0118680757388131</v>
+        <v>0.00127491821141945</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00702748880197057</v>
+        <v>-0.0205490077845807</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.00343501479434859</v>
+        <v>-0.00354408776665608</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.000549335996745808</v>
+        <v>-0.000654103887283528</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0241762541808661</v>
+        <v>0.024101773722604</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.0391209536401715</v>
+        <v>-0.039192409265383</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.069360092573382</v>
+        <v>-0.0692675968925767</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0594951387644224</v>
+        <v>0.0595879771092114</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0232694674898766</v>
+        <v>-0.023150905335812</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.0573564266786957</v>
+        <v>-0.0573431481906843</v>
       </c>
       <c r="N21" t="n">
         <v>-0.022189349112426</v>
@@ -8019,7 +8019,7 @@
         <v>-0.0236686390532544</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.00055179037020154</v>
+        <v>-0.000649782464125295</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
